--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_35.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_21_35.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1131497.78537315</v>
+        <v>1127639.63132677</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6025711.324761788</v>
+        <v>6025711.32476179</v>
       </c>
     </row>
     <row r="9">
@@ -1378,7 +1378,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>162.1305086623209</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>39.36371861119833</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>187.0082686667146</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1539,16 +1539,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0800288950615</v>
       </c>
       <c r="H13" t="n">
-        <v>130.898461692684</v>
+        <v>55.45620723761431</v>
       </c>
       <c r="I13" t="n">
-        <v>62.0511437916807</v>
+        <v>62.05114379168072</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.7428278113418</v>
       </c>
       <c r="T13" t="n">
         <v>239.7660459136613</v>
       </c>
       <c r="U13" t="n">
-        <v>180.1751117701632</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1596,7 +1596,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1606,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>227.0479527056245</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>232.238014207742</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
@@ -1767,13 +1767,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1782,10 +1782,10 @@
         <v>163.0800288950615</v>
       </c>
       <c r="H16" t="n">
-        <v>36.34806298911436</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.0511437916807</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,7 +1818,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>239.7660459136613</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>275.6020161941874</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>224.4142085601115</v>
       </c>
     </row>
     <row r="17">
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>209.1981901807758</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>39.36371861119832</v>
+        <v>39.36371861119833</v>
       </c>
       <c r="T17" t="n">
         <v>209.5194549705165</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>203.7334375677975</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -2001,13 +2001,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>164.2192128704925</v>
+        <v>86.8019304329712</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2016,13 +2016,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.0800288950615</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>130.898461692684</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.0511437916807</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>40.53946876312384</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>239.7660459136613</v>
@@ -2061,7 +2061,7 @@
         <v>275.6020161941874</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
         <v>269.3061403695714</v>
@@ -2080,22 +2080,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>397.292833724617</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>181.5160014938625</v>
       </c>
       <c r="G20" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2137,16 +2137,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
         <v>404.2032624633431</v>
@@ -2241,19 +2241,19 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>112.1195263333995</v>
       </c>
       <c r="F22" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>163.0800288950615</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2298,7 +2298,7 @@
         <v>275.6020161941874</v>
       </c>
       <c r="V22" t="n">
-        <v>239.7423320177271</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
         <v>269.3061403695714</v>
@@ -2326,16 +2326,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>39.36371861119832</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>132.0928337833078</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>348.2469745085209</v>
       </c>
     </row>
     <row r="24">
@@ -2496,7 +2496,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I25" t="n">
-        <v>62.05114379168071</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2563,13 +2563,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
-        <v>161.7114360731126</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G26" t="n">
-        <v>395.4770341286055</v>
+        <v>99.36380092680628</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>39.36371861119832</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2733,7 +2733,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I28" t="n">
-        <v>62.05114379168071</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.7428278113418</v>
+        <v>142.7428278113419</v>
       </c>
       <c r="T28" t="n">
         <v>239.7660459136613</v>
@@ -2794,22 +2794,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>230.8758869661947</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>395.4770341286055</v>
       </c>
       <c r="H29" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2842,22 +2842,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U29" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>346.5297052304021</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>164.2192128704923</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.0800288950618</v>
+        <v>163.0800288950615</v>
       </c>
       <c r="H31" t="n">
         <v>130.898461692684</v>
       </c>
       <c r="I31" t="n">
-        <v>62.05114379168071</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3028,25 +3028,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C32" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>324.6629050555647</v>
       </c>
       <c r="F32" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U32" t="n">
         <v>256.4775341414042</v>
       </c>
       <c r="V32" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X32" t="n">
-        <v>359.0331516326458</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
         <v>404.2032624633431</v>
@@ -3207,7 +3207,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I34" t="n">
-        <v>62.05114379168071</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>239.7660459136613</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6020161941874</v>
+        <v>275.6020161941873</v>
       </c>
       <c r="V34" t="n">
         <v>284.0859530482738</v>
@@ -3271,16 +3271,16 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>1.188152942743474</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>39.36371861119832</v>
       </c>
       <c r="T35" t="n">
-        <v>174.2040907069687</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3426,13 +3426,13 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>139.5545063370765</v>
+        <v>131.7199579586035</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>174.9399834978613</v>
@@ -3444,7 +3444,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I37" t="n">
-        <v>62.05114379168071</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,19 +3474,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.7428278113418</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>239.7660459136613</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6020161941874</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3505,22 +3505,22 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>369.7960807195865</v>
+        <v>213.4792974918319</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>39.36371861119832</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -3565,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
         <v>414.9510387864824</v>
@@ -3666,13 +3666,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>86.8019304329716</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>142.7428278113418</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.7660459136613</v>
@@ -3729,7 +3729,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y40" t="n">
-        <v>179.9253472280311</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="41">
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>183.3601833993026</v>
       </c>
       <c r="C41" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,22 +3793,22 @@
         <v>39.36371861119832</v>
       </c>
       <c r="T41" t="n">
-        <v>209.5194549705165</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
-        <v>293.7579140312303</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -3897,16 +3897,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>189.9004325317972</v>
+        <v>116.8264188873779</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3915,10 +3915,10 @@
         <v>163.0800288950615</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>130.898461692684</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,7 +3951,7 @@
         <v>142.7428278113418</v>
       </c>
       <c r="T43" t="n">
-        <v>27.36200117134417</v>
+        <v>239.7660459136613</v>
       </c>
       <c r="U43" t="n">
         <v>275.6020161941874</v>
@@ -3982,19 +3982,19 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>136.925101727314</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>395.4770341286055</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>266.7106435996681</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>39.36371861119832</v>
+        <v>39.36371861119831</v>
       </c>
       <c r="T44" t="n">
-        <v>209.5194549705165</v>
+        <v>147.6445500555168</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4106,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>43.87040842116372</v>
+        <v>43.87040842116371</v>
       </c>
       <c r="T45" t="n">
         <v>124.7645818372411</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>127.5471895147476</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>112.1195263333999</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0800288950615</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>130.898461692684</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1783.671804393752</v>
+        <v>1513.665250120048</v>
       </c>
       <c r="C11" t="n">
-        <v>1345.529331577176</v>
+        <v>1075.522777303472</v>
       </c>
       <c r="D11" t="n">
-        <v>909.6195467516201</v>
+        <v>639.6129924779161</v>
       </c>
       <c r="E11" t="n">
         <v>475.8448019099152</v>
       </c>
       <c r="F11" t="n">
-        <v>47.97737231912299</v>
+        <v>47.97737231912297</v>
       </c>
       <c r="G11" t="n">
-        <v>47.97737231912299</v>
+        <v>47.97737231912297</v>
       </c>
       <c r="H11" t="n">
-        <v>47.97737231912299</v>
+        <v>47.97737231912297</v>
       </c>
       <c r="I11" t="n">
-        <v>120.3463876521525</v>
+        <v>120.3463876521521</v>
       </c>
       <c r="J11" t="n">
-        <v>280.566872447263</v>
+        <v>280.5668724472627</v>
       </c>
       <c r="K11" t="n">
-        <v>520.6958462790549</v>
+        <v>520.6958462790545</v>
       </c>
       <c r="L11" t="n">
-        <v>818.5970719737413</v>
+        <v>818.597071973741</v>
       </c>
       <c r="M11" t="n">
-        <v>1150.069584980171</v>
+        <v>1150.06958498017</v>
       </c>
       <c r="N11" t="n">
         <v>1486.905669790887</v>
       </c>
       <c r="O11" t="n">
-        <v>1804.970433130815</v>
+        <v>1804.970433130814</v>
       </c>
       <c r="P11" t="n">
-        <v>2076.43134995307</v>
+        <v>2076.431349953069</v>
       </c>
       <c r="Q11" t="n">
         <v>2280.287193219309</v>
       </c>
       <c r="R11" t="n">
-        <v>2398.868615956149</v>
+        <v>2398.868615956148</v>
       </c>
       <c r="S11" t="n">
-        <v>2398.868615956149</v>
+        <v>2359.107284025645</v>
       </c>
       <c r="T11" t="n">
-        <v>2398.868615956149</v>
+        <v>2359.107284025645</v>
       </c>
       <c r="U11" t="n">
-        <v>2398.868615956149</v>
+        <v>2359.107284025645</v>
       </c>
       <c r="V11" t="n">
-        <v>2398.868615956149</v>
+        <v>2359.107284025645</v>
       </c>
       <c r="W11" t="n">
-        <v>2209.97137487866</v>
+        <v>2359.107284025645</v>
       </c>
       <c r="X11" t="n">
-        <v>2209.97137487866</v>
+        <v>1939.964820604956</v>
       </c>
       <c r="Y11" t="n">
-        <v>2209.97137487866</v>
+        <v>1939.964820604956</v>
       </c>
     </row>
     <row r="12">
@@ -5111,25 +5111,25 @@
         <v>164.1146899932298</v>
       </c>
       <c r="G12" t="n">
-        <v>79.76014376868005</v>
+        <v>79.76014376868002</v>
       </c>
       <c r="H12" t="n">
-        <v>47.97737231912299</v>
+        <v>47.97737231912297</v>
       </c>
       <c r="I12" t="n">
-        <v>82.75272404474124</v>
+        <v>82.75272404474121</v>
       </c>
       <c r="J12" t="n">
-        <v>178.1789471685047</v>
+        <v>151.0252292810505</v>
       </c>
       <c r="K12" t="n">
-        <v>314.1238438647555</v>
+        <v>314.1238438647558</v>
       </c>
       <c r="L12" t="n">
-        <v>533.4300587917276</v>
+        <v>533.4300587917279</v>
       </c>
       <c r="M12" t="n">
-        <v>789.3500676056086</v>
+        <v>789.3500676056088</v>
       </c>
       <c r="N12" t="n">
         <v>1052.04351753904</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>751.0736717819863</v>
+        <v>1016.30373030507</v>
       </c>
       <c r="C13" t="n">
-        <v>578.5119602652112</v>
+        <v>843.7420187882952</v>
       </c>
       <c r="D13" t="n">
-        <v>412.6339674667339</v>
+        <v>677.8640259898179</v>
       </c>
       <c r="E13" t="n">
-        <v>242.8759637174712</v>
+        <v>508.1060222405552</v>
       </c>
       <c r="F13" t="n">
-        <v>242.8759637174712</v>
+        <v>331.3989682023114</v>
       </c>
       <c r="G13" t="n">
-        <v>242.8759637174712</v>
+        <v>166.6716662881078</v>
       </c>
       <c r="H13" t="n">
         <v>110.6552953410227</v>
       </c>
       <c r="I13" t="n">
-        <v>47.97737231912299</v>
+        <v>47.97737231912297</v>
       </c>
       <c r="J13" t="n">
-        <v>194.4244032063441</v>
+        <v>107.8447180416542</v>
       </c>
       <c r="K13" t="n">
-        <v>292.8048427503778</v>
+        <v>206.2251575856879</v>
       </c>
       <c r="L13" t="n">
-        <v>577.2103310483625</v>
+        <v>505.0479757929222</v>
       </c>
       <c r="M13" t="n">
-        <v>1169.430811614078</v>
+        <v>1097.268456358637</v>
       </c>
       <c r="N13" t="n">
-        <v>1741.270048171153</v>
+        <v>1669.107692915712</v>
       </c>
       <c r="O13" t="n">
-        <v>1860.95855161643</v>
+        <v>2208.46544558677</v>
       </c>
       <c r="P13" t="n">
-        <v>2310.879637112109</v>
+        <v>2310.879637112108</v>
       </c>
       <c r="Q13" t="n">
-        <v>2381.785914783478</v>
+        <v>2381.785914783477</v>
       </c>
       <c r="R13" t="n">
-        <v>2398.868615956149</v>
+        <v>2398.868615956148</v>
       </c>
       <c r="S13" t="n">
-        <v>2398.868615956149</v>
+        <v>2254.683941399237</v>
       </c>
       <c r="T13" t="n">
-        <v>2156.680690790835</v>
+        <v>2012.496016233923</v>
       </c>
       <c r="U13" t="n">
-        <v>1974.685628396731</v>
+        <v>2012.496016233923</v>
       </c>
       <c r="V13" t="n">
-        <v>1687.730120267161</v>
+        <v>1725.540508104353</v>
       </c>
       <c r="W13" t="n">
-        <v>1415.703715853453</v>
+        <v>1453.514103690645</v>
       </c>
       <c r="X13" t="n">
-        <v>1170.311961186865</v>
+        <v>1208.122349024057</v>
       </c>
       <c r="Y13" t="n">
-        <v>942.8922905009733</v>
+        <v>1208.122349024057</v>
       </c>
     </row>
     <row r="14">
@@ -5254,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1574.870697946493</v>
+        <v>913.9872747264919</v>
       </c>
       <c r="C14" t="n">
-        <v>1345.529331577176</v>
+        <v>475.8448019099152</v>
       </c>
       <c r="D14" t="n">
-        <v>909.6195467516201</v>
+        <v>475.8448019099152</v>
       </c>
       <c r="E14" t="n">
         <v>475.8448019099152</v>
       </c>
       <c r="F14" t="n">
-        <v>47.97737231912299</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="G14" t="n">
-        <v>47.97737231912299</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="H14" t="n">
-        <v>47.97737231912299</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I14" t="n">
-        <v>120.3463876521521</v>
+        <v>120.3463876521526</v>
       </c>
       <c r="J14" t="n">
         <v>280.5668724472631</v>
@@ -5290,13 +5290,13 @@
         <v>1150.069584980171</v>
       </c>
       <c r="N14" t="n">
-        <v>1486.905669790888</v>
+        <v>1486.905669790887</v>
       </c>
       <c r="O14" t="n">
         <v>1804.970433130815</v>
       </c>
       <c r="P14" t="n">
-        <v>2076.43134995307</v>
+        <v>2076.431349953069</v>
       </c>
       <c r="Q14" t="n">
         <v>2280.287193219309</v>
@@ -5314,16 +5314,16 @@
         <v>2398.868615956149</v>
       </c>
       <c r="V14" t="n">
-        <v>2398.868615956149</v>
+        <v>2164.284763221056</v>
       </c>
       <c r="W14" t="n">
-        <v>1994.013161367183</v>
+        <v>1759.429308632089</v>
       </c>
       <c r="X14" t="n">
-        <v>1574.870697946493</v>
+        <v>1340.2868452114</v>
       </c>
       <c r="Y14" t="n">
-        <v>1574.870697946493</v>
+        <v>1340.2868452114</v>
       </c>
     </row>
     <row r="15">
@@ -5348,31 +5348,31 @@
         <v>164.1146899932298</v>
       </c>
       <c r="G15" t="n">
-        <v>79.76014376868005</v>
+        <v>79.76014376868002</v>
       </c>
       <c r="H15" t="n">
-        <v>47.97737231912299</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I15" t="n">
-        <v>82.75272404474124</v>
+        <v>82.75272404474121</v>
       </c>
       <c r="J15" t="n">
-        <v>178.1789471685047</v>
+        <v>178.1789471685046</v>
       </c>
       <c r="K15" t="n">
-        <v>314.1238438647555</v>
+        <v>341.2775617522099</v>
       </c>
       <c r="L15" t="n">
-        <v>533.4300587917276</v>
+        <v>560.5837766791821</v>
       </c>
       <c r="M15" t="n">
-        <v>789.3500676056086</v>
+        <v>816.5037854930629</v>
       </c>
       <c r="N15" t="n">
-        <v>1052.04351753904</v>
+        <v>1079.197235426494</v>
       </c>
       <c r="O15" t="n">
-        <v>1292.356702896953</v>
+        <v>1319.510420784407</v>
       </c>
       <c r="P15" t="n">
         <v>1485.229220531343</v>
@@ -5412,43 +5412,43 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>654.6828592324669</v>
+        <v>897.6094363360853</v>
       </c>
       <c r="C16" t="n">
-        <v>654.6828592324669</v>
+        <v>725.0477248193102</v>
       </c>
       <c r="D16" t="n">
-        <v>488.8048664339896</v>
+        <v>559.169732020833</v>
       </c>
       <c r="E16" t="n">
-        <v>488.8048664339896</v>
+        <v>389.4117282715703</v>
       </c>
       <c r="F16" t="n">
-        <v>312.0978123957458</v>
+        <v>212.7046742333265</v>
       </c>
       <c r="G16" t="n">
-        <v>147.3705104815423</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="H16" t="n">
-        <v>110.6552953410227</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I16" t="n">
-        <v>47.97737231912299</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="J16" t="n">
-        <v>194.4244032063441</v>
+        <v>107.8447180416542</v>
       </c>
       <c r="K16" t="n">
-        <v>567.5632973215133</v>
+        <v>322.9390827226415</v>
       </c>
       <c r="L16" t="n">
-        <v>1111.666270505995</v>
+        <v>448.8321741391616</v>
       </c>
       <c r="M16" t="n">
-        <v>1244.402883890797</v>
+        <v>581.5687875239637</v>
       </c>
       <c r="N16" t="n">
-        <v>1373.983317290227</v>
+        <v>1153.408024081039</v>
       </c>
       <c r="O16" t="n">
         <v>1692.765776752097</v>
@@ -5466,22 +5466,22 @@
         <v>2398.868615956149</v>
       </c>
       <c r="T16" t="n">
-        <v>2156.680690790835</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="U16" t="n">
-        <v>1878.294815847211</v>
+        <v>2120.482741012525</v>
       </c>
       <c r="V16" t="n">
-        <v>1591.339307717642</v>
+        <v>1833.527232882956</v>
       </c>
       <c r="W16" t="n">
-        <v>1319.312903303933</v>
+        <v>1561.500828469247</v>
       </c>
       <c r="X16" t="n">
-        <v>1073.921148637346</v>
+        <v>1316.10907380266</v>
       </c>
       <c r="Y16" t="n">
-        <v>846.501477951454</v>
+        <v>1089.428055055072</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1152.76359929445</v>
+        <v>909.6195467516201</v>
       </c>
       <c r="C17" t="n">
-        <v>1152.76359929445</v>
+        <v>909.6195467516201</v>
       </c>
       <c r="D17" t="n">
-        <v>716.8538144688943</v>
+        <v>909.6195467516201</v>
       </c>
       <c r="E17" t="n">
-        <v>716.8538144688943</v>
+        <v>475.8448019099152</v>
       </c>
       <c r="F17" t="n">
-        <v>716.8538144688943</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="G17" t="n">
-        <v>317.3820628238382</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="H17" t="n">
-        <v>47.97737231912299</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I17" t="n">
-        <v>120.3463876521521</v>
+        <v>120.3463876521526</v>
       </c>
       <c r="J17" t="n">
         <v>280.5668724472631</v>
@@ -5527,13 +5527,13 @@
         <v>1150.069584980171</v>
       </c>
       <c r="N17" t="n">
-        <v>1486.905669790888</v>
+        <v>1486.905669790887</v>
       </c>
       <c r="O17" t="n">
         <v>1804.970433130815</v>
       </c>
       <c r="P17" t="n">
-        <v>2076.43134995307</v>
+        <v>2076.431349953069</v>
       </c>
       <c r="Q17" t="n">
         <v>2280.287193219309</v>
@@ -5548,19 +5548,19 @@
         <v>2147.471470924114</v>
       </c>
       <c r="U17" t="n">
-        <v>2147.471470924114</v>
+        <v>1888.403254619665</v>
       </c>
       <c r="V17" t="n">
-        <v>1784.854520857941</v>
+        <v>1525.786304553492</v>
       </c>
       <c r="W17" t="n">
-        <v>1579.063169779357</v>
+        <v>1120.930849964525</v>
       </c>
       <c r="X17" t="n">
-        <v>1579.063169779357</v>
+        <v>1120.930849964525</v>
       </c>
       <c r="Y17" t="n">
-        <v>1579.063169779357</v>
+        <v>1120.930849964525</v>
       </c>
     </row>
     <row r="18">
@@ -5585,25 +5585,25 @@
         <v>164.1146899932298</v>
       </c>
       <c r="G18" t="n">
-        <v>79.76014376868005</v>
+        <v>79.76014376868002</v>
       </c>
       <c r="H18" t="n">
-        <v>47.97737231912299</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I18" t="n">
-        <v>82.75272404474124</v>
+        <v>82.75272404474121</v>
       </c>
       <c r="J18" t="n">
-        <v>151.0252292810501</v>
+        <v>178.1789471685046</v>
       </c>
       <c r="K18" t="n">
-        <v>314.1238438647555</v>
+        <v>314.1238438647558</v>
       </c>
       <c r="L18" t="n">
-        <v>533.4300587917276</v>
+        <v>533.4300587917279</v>
       </c>
       <c r="M18" t="n">
-        <v>789.3500676056086</v>
+        <v>789.3500676056088</v>
       </c>
       <c r="N18" t="n">
         <v>1052.04351753904</v>
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1092.508027734434</v>
+        <v>654.6828592324664</v>
       </c>
       <c r="C19" t="n">
-        <v>919.9463162176586</v>
+        <v>482.1211477156913</v>
       </c>
       <c r="D19" t="n">
-        <v>754.0683234191813</v>
+        <v>394.4424301066295</v>
       </c>
       <c r="E19" t="n">
-        <v>584.3103196699185</v>
+        <v>224.6844263573668</v>
       </c>
       <c r="F19" t="n">
-        <v>407.6032656316747</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="G19" t="n">
-        <v>242.8759637174712</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="H19" t="n">
-        <v>110.6552953410227</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I19" t="n">
-        <v>47.97737231912299</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="J19" t="n">
-        <v>107.8447180416543</v>
+        <v>107.8447180416542</v>
       </c>
       <c r="K19" t="n">
-        <v>480.9836121568235</v>
+        <v>206.2251575856879</v>
       </c>
       <c r="L19" t="n">
-        <v>606.8767035733435</v>
+        <v>750.3281307701691</v>
       </c>
       <c r="M19" t="n">
-        <v>739.6133169581458</v>
+        <v>1097.268456358638</v>
       </c>
       <c r="N19" t="n">
-        <v>1153.408024081039</v>
+        <v>1669.107692915713</v>
       </c>
       <c r="O19" t="n">
-        <v>1692.765776752097</v>
+        <v>2208.465445586771</v>
       </c>
       <c r="P19" t="n">
-        <v>2142.686862247777</v>
+        <v>2310.879637112109</v>
       </c>
       <c r="Q19" t="n">
         <v>2381.785914783478</v>
@@ -5700,25 +5700,25 @@
         <v>2398.868615956149</v>
       </c>
       <c r="S19" t="n">
-        <v>2357.91965760956</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T19" t="n">
-        <v>2115.731732444245</v>
+        <v>2156.680690790834</v>
       </c>
       <c r="U19" t="n">
-        <v>1837.345857500621</v>
+        <v>1878.294815847211</v>
       </c>
       <c r="V19" t="n">
-        <v>1837.345857500621</v>
+        <v>1591.339307717641</v>
       </c>
       <c r="W19" t="n">
-        <v>1565.319453086913</v>
+        <v>1319.312903303933</v>
       </c>
       <c r="X19" t="n">
-        <v>1319.927698420325</v>
+        <v>1073.921148637345</v>
       </c>
       <c r="Y19" t="n">
-        <v>1092.508027734434</v>
+        <v>846.5014779514536</v>
       </c>
     </row>
     <row r="20">
@@ -5728,52 +5728,52 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>885.5915967807557</v>
+        <v>1105.379126419702</v>
       </c>
       <c r="C20" t="n">
-        <v>447.449123964179</v>
+        <v>667.2366536031254</v>
       </c>
       <c r="D20" t="n">
-        <v>447.449123964179</v>
+        <v>231.3268687775699</v>
       </c>
       <c r="E20" t="n">
-        <v>447.449123964179</v>
+        <v>231.3268687775699</v>
       </c>
       <c r="F20" t="n">
-        <v>447.449123964179</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="G20" t="n">
-        <v>47.97737231912299</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="H20" t="n">
-        <v>47.97737231912299</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I20" t="n">
-        <v>120.3463876521531</v>
+        <v>120.3463876521519</v>
       </c>
       <c r="J20" t="n">
-        <v>280.5668724472636</v>
+        <v>280.5668724472624</v>
       </c>
       <c r="K20" t="n">
-        <v>520.6958462790553</v>
+        <v>520.6958462790542</v>
       </c>
       <c r="L20" t="n">
-        <v>818.5970719737418</v>
+        <v>818.5970719737409</v>
       </c>
       <c r="M20" t="n">
-        <v>1150.069584980171</v>
+        <v>1150.06958498017</v>
       </c>
       <c r="N20" t="n">
-        <v>1486.905669790888</v>
+        <v>1486.905669790887</v>
       </c>
       <c r="O20" t="n">
-        <v>1804.970433130815</v>
+        <v>1804.970433130814</v>
       </c>
       <c r="P20" t="n">
-        <v>2076.43134995307</v>
+        <v>2076.431349953069</v>
       </c>
       <c r="Q20" t="n">
-        <v>2280.28719321931</v>
+        <v>2280.287193219309</v>
       </c>
       <c r="R20" t="n">
         <v>2398.868615956149</v>
@@ -5785,19 +5785,19 @@
         <v>2359.107284025646</v>
       </c>
       <c r="U20" t="n">
-        <v>2100.039067721197</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="V20" t="n">
-        <v>2100.039067721197</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="W20" t="n">
-        <v>1695.18361313223</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="X20" t="n">
-        <v>1695.18361313223</v>
+        <v>1939.964820604956</v>
       </c>
       <c r="Y20" t="n">
-        <v>1286.897489431884</v>
+        <v>1531.67869690461</v>
       </c>
     </row>
     <row r="21">
@@ -5822,31 +5822,31 @@
         <v>164.1146899932298</v>
       </c>
       <c r="G21" t="n">
-        <v>79.76014376868005</v>
+        <v>79.76014376868002</v>
       </c>
       <c r="H21" t="n">
-        <v>47.97737231912299</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I21" t="n">
-        <v>82.75272404474124</v>
+        <v>82.75272404474123</v>
       </c>
       <c r="J21" t="n">
-        <v>151.0252292810505</v>
+        <v>178.1789471685046</v>
       </c>
       <c r="K21" t="n">
-        <v>314.1238438647558</v>
+        <v>341.27756175221</v>
       </c>
       <c r="L21" t="n">
-        <v>533.4300587917279</v>
+        <v>560.5837766791822</v>
       </c>
       <c r="M21" t="n">
-        <v>789.3500676056088</v>
+        <v>816.5037854930631</v>
       </c>
       <c r="N21" t="n">
-        <v>1052.04351753904</v>
+        <v>1079.197235426494</v>
       </c>
       <c r="O21" t="n">
-        <v>1292.356702896953</v>
+        <v>1319.510420784407</v>
       </c>
       <c r="P21" t="n">
         <v>1485.229220531343</v>
@@ -5886,46 +5886,46 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>555.2897210700477</v>
+        <v>510.4981846755555</v>
       </c>
       <c r="C22" t="n">
-        <v>555.2897210700477</v>
+        <v>337.9364731587804</v>
       </c>
       <c r="D22" t="n">
-        <v>389.4117282715703</v>
+        <v>337.9364731587804</v>
       </c>
       <c r="E22" t="n">
-        <v>389.4117282715703</v>
+        <v>224.6844263573668</v>
       </c>
       <c r="F22" t="n">
-        <v>212.7046742333265</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="G22" t="n">
-        <v>47.97737231912299</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="H22" t="n">
-        <v>47.97737231912299</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="I22" t="n">
-        <v>47.97737231912299</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="J22" t="n">
         <v>107.8447180416543</v>
       </c>
       <c r="K22" t="n">
-        <v>480.9836121568235</v>
+        <v>206.2251575856879</v>
       </c>
       <c r="L22" t="n">
-        <v>1025.086585341305</v>
+        <v>750.3281307701691</v>
       </c>
       <c r="M22" t="n">
-        <v>1192.020365545941</v>
+        <v>1342.548611335884</v>
       </c>
       <c r="N22" t="n">
-        <v>1321.600798945371</v>
+        <v>1914.387847892959</v>
       </c>
       <c r="O22" t="n">
-        <v>1860.95855161643</v>
+        <v>2208.465445586771</v>
       </c>
       <c r="P22" t="n">
         <v>2310.879637112109</v>
@@ -5940,22 +5940,22 @@
         <v>2254.683941399238</v>
       </c>
       <c r="T22" t="n">
-        <v>2012.496016233924</v>
+        <v>2012.496016233923</v>
       </c>
       <c r="U22" t="n">
         <v>1734.1101412903</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.946169555222</v>
+        <v>1447.15463316073</v>
       </c>
       <c r="W22" t="n">
-        <v>1219.919765141514</v>
+        <v>1175.128228747022</v>
       </c>
       <c r="X22" t="n">
-        <v>974.5280104749265</v>
+        <v>929.7364740804344</v>
       </c>
       <c r="Y22" t="n">
-        <v>747.1083397890347</v>
+        <v>702.3168033945426</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2030.65125360098</v>
+        <v>1795.549556292913</v>
       </c>
       <c r="C23" t="n">
-        <v>1592.508780784403</v>
+        <v>1357.407083476336</v>
       </c>
       <c r="D23" t="n">
-        <v>1156.598995958847</v>
+        <v>921.4972986507809</v>
       </c>
       <c r="E23" t="n">
-        <v>1156.598995958847</v>
+        <v>487.722553809076</v>
       </c>
       <c r="F23" t="n">
-        <v>728.731566368055</v>
+        <v>59.85512421828376</v>
       </c>
       <c r="G23" t="n">
-        <v>329.259814722999</v>
+        <v>59.85512421828376</v>
       </c>
       <c r="H23" t="n">
         <v>59.85512421828376</v>
@@ -5989,52 +5989,52 @@
         <v>132.2241395513133</v>
       </c>
       <c r="J23" t="n">
-        <v>337.6031484702798</v>
+        <v>727.6993117993417</v>
       </c>
       <c r="K23" t="n">
-        <v>577.7321223020715</v>
+        <v>967.8282856311334</v>
       </c>
       <c r="L23" t="n">
-        <v>875.6333479967579</v>
+        <v>1265.72951132582</v>
       </c>
       <c r="M23" t="n">
-        <v>1207.105861003187</v>
+        <v>1597.202024332249</v>
       </c>
       <c r="N23" t="n">
-        <v>1543.941945813904</v>
+        <v>1934.038109142966</v>
       </c>
       <c r="O23" t="n">
-        <v>1862.006709153831</v>
+        <v>2252.102872482893</v>
       </c>
       <c r="P23" t="n">
-        <v>2133.467625976086</v>
+        <v>2523.563789305149</v>
       </c>
       <c r="Q23" t="n">
-        <v>2874.174788177348</v>
+        <v>2727.419632571388</v>
       </c>
       <c r="R23" t="n">
         <v>2992.756210914188</v>
       </c>
       <c r="S23" t="n">
-        <v>2952.994878983685</v>
+        <v>2992.756210914188</v>
       </c>
       <c r="T23" t="n">
-        <v>2819.567774152061</v>
+        <v>2992.756210914188</v>
       </c>
       <c r="U23" t="n">
-        <v>2819.567774152061</v>
+        <v>2992.756210914188</v>
       </c>
       <c r="V23" t="n">
-        <v>2456.950824085887</v>
+        <v>2992.756210914188</v>
       </c>
       <c r="W23" t="n">
-        <v>2456.950824085887</v>
+        <v>2992.756210914188</v>
       </c>
       <c r="X23" t="n">
-        <v>2456.950824085887</v>
+        <v>2573.613747493499</v>
       </c>
       <c r="Y23" t="n">
-        <v>2456.950824085887</v>
+        <v>2221.849126777821</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>59.85512421828376</v>
       </c>
       <c r="I24" t="n">
-        <v>67.47675805644769</v>
+        <v>94.63047594390201</v>
       </c>
       <c r="J24" t="n">
-        <v>162.9029811802111</v>
+        <v>190.0566990676654</v>
       </c>
       <c r="K24" t="n">
-        <v>326.0015957639164</v>
+        <v>353.1553136513708</v>
       </c>
       <c r="L24" t="n">
-        <v>545.3078106908886</v>
+        <v>572.4615285783429</v>
       </c>
       <c r="M24" t="n">
-        <v>801.2278195047695</v>
+        <v>828.381537392224</v>
       </c>
       <c r="N24" t="n">
-        <v>1063.921269438201</v>
+        <v>1091.074987325655</v>
       </c>
       <c r="O24" t="n">
-        <v>1304.234454796113</v>
+        <v>1331.388172683568</v>
       </c>
       <c r="P24" t="n">
-        <v>1497.106972430504</v>
+        <v>1524.260690317959</v>
       </c>
       <c r="Q24" t="n">
         <v>1626.037142700873</v>
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1104.385779633595</v>
+        <v>1104.385779633594</v>
       </c>
       <c r="C25" t="n">
-        <v>931.8240681168196</v>
+        <v>931.8240681168193</v>
       </c>
       <c r="D25" t="n">
         <v>765.9460753183421</v>
@@ -6138,7 +6138,7 @@
         <v>419.4810175308355</v>
       </c>
       <c r="G25" t="n">
-        <v>254.753715616632</v>
+        <v>254.7537156166319</v>
       </c>
       <c r="H25" t="n">
         <v>122.5330472401835</v>
@@ -6153,19 +6153,19 @@
         <v>579.4410492206741</v>
       </c>
       <c r="L25" t="n">
-        <v>705.3341406371943</v>
+        <v>1123.544022405155</v>
       </c>
       <c r="M25" t="n">
-        <v>1297.554621202909</v>
+        <v>1715.76450297087</v>
       </c>
       <c r="N25" t="n">
-        <v>1747.295619039077</v>
+        <v>2166.964868264859</v>
       </c>
       <c r="O25" t="n">
         <v>2286.653371710135</v>
       </c>
       <c r="P25" t="n">
-        <v>2736.574457205816</v>
+        <v>2736.574457205815</v>
       </c>
       <c r="Q25" t="n">
         <v>2975.673509741517</v>
@@ -6177,22 +6177,22 @@
         <v>2848.571536357277</v>
       </c>
       <c r="T25" t="n">
-        <v>2606.383611191963</v>
+        <v>2606.383611191962</v>
       </c>
       <c r="U25" t="n">
         <v>2327.997736248339</v>
       </c>
       <c r="V25" t="n">
-        <v>2041.04222811877</v>
+        <v>2041.042228118769</v>
       </c>
       <c r="W25" t="n">
         <v>1769.015823705061</v>
       </c>
       <c r="X25" t="n">
-        <v>1523.624069038474</v>
+        <v>1523.624069038473</v>
       </c>
       <c r="Y25" t="n">
-        <v>1296.204398352582</v>
+        <v>1296.204398352581</v>
       </c>
     </row>
     <row r="26">
@@ -6202,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1496.724018427808</v>
+        <v>1895.917031976556</v>
       </c>
       <c r="C26" t="n">
-        <v>1058.581545611231</v>
+        <v>1457.774559159979</v>
       </c>
       <c r="D26" t="n">
-        <v>622.6717607856758</v>
+        <v>1021.864774334424</v>
       </c>
       <c r="E26" t="n">
-        <v>459.3268758633398</v>
+        <v>588.0900294927187</v>
       </c>
       <c r="F26" t="n">
-        <v>459.3268758633398</v>
+        <v>160.2225999019265</v>
       </c>
       <c r="G26" t="n">
         <v>59.85512421828376</v>
@@ -6226,28 +6226,28 @@
         <v>132.2241395513133</v>
       </c>
       <c r="J26" t="n">
-        <v>292.4446243464238</v>
+        <v>727.6993117993417</v>
       </c>
       <c r="K26" t="n">
-        <v>532.5735981782154</v>
+        <v>967.8282856311334</v>
       </c>
       <c r="L26" t="n">
-        <v>830.474823872902</v>
+        <v>1265.72951132582</v>
       </c>
       <c r="M26" t="n">
-        <v>1571.181986074163</v>
+        <v>1597.202024332249</v>
       </c>
       <c r="N26" t="n">
-        <v>1908.01807088488</v>
+        <v>1934.038109142966</v>
       </c>
       <c r="O26" t="n">
-        <v>2398.858028088853</v>
+        <v>2252.102872482893</v>
       </c>
       <c r="P26" t="n">
-        <v>2670.318944911109</v>
+        <v>2523.563789305149</v>
       </c>
       <c r="Q26" t="n">
-        <v>2874.174788177348</v>
+        <v>2727.419632571388</v>
       </c>
       <c r="R26" t="n">
         <v>2992.756210914188</v>
@@ -6256,22 +6256,22 @@
         <v>2952.994878983684</v>
       </c>
       <c r="T26" t="n">
-        <v>2952.994878983684</v>
+        <v>2741.359065882153</v>
       </c>
       <c r="U26" t="n">
-        <v>2693.926662679236</v>
+        <v>2741.359065882153</v>
       </c>
       <c r="V26" t="n">
-        <v>2331.309712613062</v>
+        <v>2741.359065882153</v>
       </c>
       <c r="W26" t="n">
-        <v>2331.309712613062</v>
+        <v>2741.359065882153</v>
       </c>
       <c r="X26" t="n">
-        <v>2331.309712613062</v>
+        <v>2322.216602461463</v>
       </c>
       <c r="Y26" t="n">
-        <v>1923.023588912716</v>
+        <v>2322.216602461463</v>
       </c>
     </row>
     <row r="27">
@@ -6302,22 +6302,22 @@
         <v>59.85512421828376</v>
       </c>
       <c r="I27" t="n">
-        <v>94.630475943902</v>
+        <v>67.47675805644755</v>
       </c>
       <c r="J27" t="n">
-        <v>190.0566990676654</v>
+        <v>162.902981180211</v>
       </c>
       <c r="K27" t="n">
-        <v>353.1553136513708</v>
+        <v>326.0015957639163</v>
       </c>
       <c r="L27" t="n">
-        <v>572.4615285783428</v>
+        <v>545.3078106908885</v>
       </c>
       <c r="M27" t="n">
-        <v>828.3815373922238</v>
+        <v>801.2278195047695</v>
       </c>
       <c r="N27" t="n">
-        <v>1091.074987325655</v>
+        <v>1063.921269438201</v>
       </c>
       <c r="O27" t="n">
         <v>1304.234454796113</v>
@@ -6375,7 +6375,7 @@
         <v>419.4810175308355</v>
       </c>
       <c r="G28" t="n">
-        <v>254.7537156166319</v>
+        <v>254.753715616632</v>
       </c>
       <c r="H28" t="n">
         <v>122.5330472401835</v>
@@ -6384,25 +6384,25 @@
         <v>59.85512421828376</v>
       </c>
       <c r="J28" t="n">
-        <v>206.3021551055049</v>
+        <v>119.722469940815</v>
       </c>
       <c r="K28" t="n">
-        <v>579.4410492206741</v>
+        <v>492.8613640559843</v>
       </c>
       <c r="L28" t="n">
-        <v>705.3341406371943</v>
+        <v>751.428676780619</v>
       </c>
       <c r="M28" t="n">
-        <v>1175.456382482002</v>
+        <v>1343.649157346334</v>
       </c>
       <c r="N28" t="n">
-        <v>1747.295619039077</v>
+        <v>1915.488393903409</v>
       </c>
       <c r="O28" t="n">
-        <v>2286.653371710135</v>
+        <v>2454.846146574467</v>
       </c>
       <c r="P28" t="n">
-        <v>2736.574457205815</v>
+        <v>2904.767232070148</v>
       </c>
       <c r="Q28" t="n">
         <v>2975.673509741517</v>
@@ -6439,22 +6439,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1594.741468775424</v>
+        <v>1128.444627321415</v>
       </c>
       <c r="C29" t="n">
-        <v>1156.598995958847</v>
+        <v>1128.444627321415</v>
       </c>
       <c r="D29" t="n">
-        <v>1156.598995958847</v>
+        <v>692.5348424958597</v>
       </c>
       <c r="E29" t="n">
-        <v>1156.598995958847</v>
+        <v>459.3268758633398</v>
       </c>
       <c r="F29" t="n">
-        <v>728.731566368055</v>
+        <v>459.3268758633398</v>
       </c>
       <c r="G29" t="n">
-        <v>329.259814722999</v>
+        <v>59.85512421828376</v>
       </c>
       <c r="H29" t="n">
         <v>59.85512421828376</v>
@@ -6463,52 +6463,52 @@
         <v>132.2241395513133</v>
       </c>
       <c r="J29" t="n">
-        <v>292.4446243464238</v>
+        <v>705.3004026522444</v>
       </c>
       <c r="K29" t="n">
-        <v>532.5735981782154</v>
+        <v>945.4293764840362</v>
       </c>
       <c r="L29" t="n">
-        <v>830.474823872902</v>
+        <v>1243.330602178723</v>
       </c>
       <c r="M29" t="n">
-        <v>1161.947336879331</v>
+        <v>1574.803115185152</v>
       </c>
       <c r="N29" t="n">
-        <v>1498.783421690048</v>
+        <v>1911.639199995869</v>
       </c>
       <c r="O29" t="n">
-        <v>1929.611782709847</v>
+        <v>2229.703963335796</v>
       </c>
       <c r="P29" t="n">
-        <v>2670.318944911109</v>
+        <v>2501.164880158052</v>
       </c>
       <c r="Q29" t="n">
-        <v>2874.174788177348</v>
+        <v>2705.020723424291</v>
       </c>
       <c r="R29" t="n">
         <v>2992.756210914188</v>
       </c>
       <c r="S29" t="n">
-        <v>2992.756210914188</v>
+        <v>2952.994878983684</v>
       </c>
       <c r="T29" t="n">
-        <v>2992.756210914188</v>
+        <v>2741.359065882153</v>
       </c>
       <c r="U29" t="n">
-        <v>2733.68799460974</v>
+        <v>2741.359065882153</v>
       </c>
       <c r="V29" t="n">
-        <v>2371.071044543566</v>
+        <v>2378.742115815979</v>
       </c>
       <c r="W29" t="n">
-        <v>2371.071044543566</v>
+        <v>1973.886661227012</v>
       </c>
       <c r="X29" t="n">
-        <v>2021.041039260332</v>
+        <v>1554.744197806323</v>
       </c>
       <c r="Y29" t="n">
-        <v>2021.041039260332</v>
+        <v>1554.744197806323</v>
       </c>
     </row>
     <row r="30">
@@ -6548,22 +6548,22 @@
         <v>353.1553136513708</v>
       </c>
       <c r="L30" t="n">
-        <v>572.4615285783428</v>
+        <v>572.4615285783429</v>
       </c>
       <c r="M30" t="n">
-        <v>828.3815373922238</v>
+        <v>828.381537392224</v>
       </c>
       <c r="N30" t="n">
         <v>1091.074987325655</v>
       </c>
       <c r="O30" t="n">
-        <v>1331.388172683568</v>
+        <v>1304.234454796113</v>
       </c>
       <c r="P30" t="n">
-        <v>1524.260690317959</v>
+        <v>1497.106972430504</v>
       </c>
       <c r="Q30" t="n">
-        <v>1653.190860588327</v>
+        <v>1626.037142700873</v>
       </c>
       <c r="R30" t="n">
         <v>1688.747955315886</v>
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1104.385779633595</v>
+        <v>1104.385779633594</v>
       </c>
       <c r="C31" t="n">
-        <v>931.8240681168196</v>
+        <v>931.8240681168191</v>
       </c>
       <c r="D31" t="n">
-        <v>765.9460753183423</v>
+        <v>765.9460753183421</v>
       </c>
       <c r="E31" t="n">
-        <v>596.1880715690795</v>
+        <v>596.1880715690793</v>
       </c>
       <c r="F31" t="n">
-        <v>419.4810175308357</v>
+        <v>419.4810175308355</v>
       </c>
       <c r="G31" t="n">
         <v>254.7537156166319</v>
@@ -6624,22 +6624,22 @@
         <v>206.3021551055049</v>
       </c>
       <c r="K31" t="n">
-        <v>304.6825946495385</v>
+        <v>579.4410492206741</v>
       </c>
       <c r="L31" t="n">
-        <v>848.7855678340196</v>
+        <v>1123.544022405155</v>
       </c>
       <c r="M31" t="n">
-        <v>1441.006048399735</v>
+        <v>1715.76450297087</v>
       </c>
       <c r="N31" t="n">
-        <v>1747.295619039077</v>
+        <v>1845.344936370301</v>
       </c>
       <c r="O31" t="n">
         <v>2286.653371710135</v>
       </c>
       <c r="P31" t="n">
-        <v>2736.574457205816</v>
+        <v>2736.574457205815</v>
       </c>
       <c r="Q31" t="n">
         <v>2975.673509741517</v>
@@ -6651,22 +6651,22 @@
         <v>2848.571536357277</v>
       </c>
       <c r="T31" t="n">
-        <v>2606.383611191963</v>
+        <v>2606.383611191962</v>
       </c>
       <c r="U31" t="n">
         <v>2327.997736248339</v>
       </c>
       <c r="V31" t="n">
-        <v>2041.04222811877</v>
+        <v>2041.042228118769</v>
       </c>
       <c r="W31" t="n">
         <v>1769.015823705061</v>
       </c>
       <c r="X31" t="n">
-        <v>1523.624069038474</v>
+        <v>1523.624069038473</v>
       </c>
       <c r="Y31" t="n">
-        <v>1296.204398352582</v>
+        <v>1296.204398352581</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1195.269717130368</v>
+        <v>823.7072373827936</v>
       </c>
       <c r="C32" t="n">
-        <v>757.1272443137913</v>
+        <v>823.7072373827936</v>
       </c>
       <c r="D32" t="n">
-        <v>757.1272443137913</v>
+        <v>387.797452557238</v>
       </c>
       <c r="E32" t="n">
-        <v>757.1272443137913</v>
+        <v>59.85512421828376</v>
       </c>
       <c r="F32" t="n">
-        <v>329.259814722999</v>
+        <v>59.85512421828376</v>
       </c>
       <c r="G32" t="n">
-        <v>329.259814722999</v>
+        <v>59.85512421828376</v>
       </c>
       <c r="H32" t="n">
         <v>59.85512421828376</v>
@@ -6700,22 +6700,22 @@
         <v>132.2241395513133</v>
       </c>
       <c r="J32" t="n">
-        <v>705.3004026522451</v>
+        <v>705.3004026522444</v>
       </c>
       <c r="K32" t="n">
-        <v>945.4293764840369</v>
+        <v>945.4293764840362</v>
       </c>
       <c r="L32" t="n">
         <v>1243.330602178723</v>
       </c>
       <c r="M32" t="n">
-        <v>1574.803115185153</v>
+        <v>1574.803115185152</v>
       </c>
       <c r="N32" t="n">
         <v>1911.639199995869</v>
       </c>
       <c r="O32" t="n">
-        <v>2229.703963335797</v>
+        <v>2229.703963335796</v>
       </c>
       <c r="P32" t="n">
         <v>2501.164880158052</v>
@@ -6727,25 +6727,25 @@
         <v>2992.756210914188</v>
       </c>
       <c r="S32" t="n">
-        <v>2992.756210914188</v>
+        <v>2952.994878983684</v>
       </c>
       <c r="T32" t="n">
-        <v>2992.756210914188</v>
+        <v>2741.359065882153</v>
       </c>
       <c r="U32" t="n">
-        <v>2733.68799460974</v>
+        <v>2482.290849577704</v>
       </c>
       <c r="V32" t="n">
-        <v>2371.071044543566</v>
+        <v>2482.290849577704</v>
       </c>
       <c r="W32" t="n">
-        <v>1966.215589954599</v>
+        <v>2077.435394988737</v>
       </c>
       <c r="X32" t="n">
-        <v>1603.555840830715</v>
+        <v>1658.292931568048</v>
       </c>
       <c r="Y32" t="n">
-        <v>1195.269717130368</v>
+        <v>1250.006807867701</v>
       </c>
     </row>
     <row r="33">
@@ -6779,13 +6779,13 @@
         <v>94.63047594390201</v>
       </c>
       <c r="J33" t="n">
-        <v>190.0566990676654</v>
+        <v>162.902981180211</v>
       </c>
       <c r="K33" t="n">
-        <v>353.1553136513708</v>
+        <v>326.0015957639163</v>
       </c>
       <c r="L33" t="n">
-        <v>572.4615285783428</v>
+        <v>545.3078106908885</v>
       </c>
       <c r="M33" t="n">
         <v>801.2278195047695</v>
@@ -6837,19 +6837,19 @@
         <v>1104.385779633594</v>
       </c>
       <c r="C34" t="n">
-        <v>931.824068116819</v>
+        <v>931.8240681168193</v>
       </c>
       <c r="D34" t="n">
         <v>765.9460753183419</v>
       </c>
       <c r="E34" t="n">
-        <v>596.1880715690791</v>
+        <v>596.1880715690792</v>
       </c>
       <c r="F34" t="n">
-        <v>419.4810175308353</v>
+        <v>419.4810175308354</v>
       </c>
       <c r="G34" t="n">
-        <v>254.7537156166318</v>
+        <v>254.7537156166319</v>
       </c>
       <c r="H34" t="n">
         <v>122.5330472401835</v>
@@ -6861,19 +6861,19 @@
         <v>206.3021551055049</v>
       </c>
       <c r="K34" t="n">
-        <v>304.6825946495385</v>
+        <v>579.4410492206741</v>
       </c>
       <c r="L34" t="n">
-        <v>751.4286767806201</v>
+        <v>1123.544022405155</v>
       </c>
       <c r="M34" t="n">
-        <v>1343.649157346335</v>
+        <v>1343.649157346334</v>
       </c>
       <c r="N34" t="n">
-        <v>1915.48839390341</v>
+        <v>1915.488393903409</v>
       </c>
       <c r="O34" t="n">
-        <v>2454.846146574468</v>
+        <v>2454.846146574467</v>
       </c>
       <c r="P34" t="n">
         <v>2904.767232070148</v>
@@ -6897,7 +6897,7 @@
         <v>2041.042228118769</v>
       </c>
       <c r="W34" t="n">
-        <v>1769.01582370506</v>
+        <v>1769.015823705061</v>
       </c>
       <c r="X34" t="n">
         <v>1523.624069038473</v>
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2183.143556038809</v>
+        <v>915.1874292141116</v>
       </c>
       <c r="C35" t="n">
-        <v>1745.001083222232</v>
+        <v>477.0449563975349</v>
       </c>
       <c r="D35" t="n">
-        <v>1309.091298396676</v>
+        <v>475.8448019099152</v>
       </c>
       <c r="E35" t="n">
-        <v>875.3165535549713</v>
+        <v>475.8448019099152</v>
       </c>
       <c r="F35" t="n">
-        <v>447.449123964179</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="G35" t="n">
-        <v>47.97737231912298</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="H35" t="n">
-        <v>47.97737231912298</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I35" t="n">
         <v>120.3463876521525</v>
       </c>
       <c r="J35" t="n">
-        <v>280.566872447263</v>
+        <v>280.5668724472631</v>
       </c>
       <c r="K35" t="n">
-        <v>520.6958462790548</v>
+        <v>520.6958462790549</v>
       </c>
       <c r="L35" t="n">
-        <v>818.5970719737413</v>
+        <v>818.5970719737414</v>
       </c>
       <c r="M35" t="n">
         <v>1150.069584980171</v>
@@ -6955,7 +6955,7 @@
         <v>1804.970433130815</v>
       </c>
       <c r="P35" t="n">
-        <v>2076.431349953069</v>
+        <v>2076.43134995307</v>
       </c>
       <c r="Q35" t="n">
         <v>2280.287193219309</v>
@@ -6967,22 +6967,22 @@
         <v>2359.107284025646</v>
       </c>
       <c r="T35" t="n">
-        <v>2183.143556038809</v>
+        <v>2147.471470924114</v>
       </c>
       <c r="U35" t="n">
-        <v>2183.143556038809</v>
+        <v>2147.471470924114</v>
       </c>
       <c r="V35" t="n">
-        <v>2183.143556038809</v>
+        <v>2147.471470924114</v>
       </c>
       <c r="W35" t="n">
-        <v>2183.143556038809</v>
+        <v>1742.616016335148</v>
       </c>
       <c r="X35" t="n">
-        <v>2183.143556038809</v>
+        <v>1323.473552914458</v>
       </c>
       <c r="Y35" t="n">
-        <v>2183.143556038809</v>
+        <v>915.1874292141116</v>
       </c>
     </row>
     <row r="36">
@@ -7007,31 +7007,31 @@
         <v>164.1146899932298</v>
       </c>
       <c r="G36" t="n">
-        <v>79.76014376868002</v>
+        <v>79.76014376868005</v>
       </c>
       <c r="H36" t="n">
-        <v>47.97737231912298</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I36" t="n">
-        <v>55.59900615728705</v>
+        <v>82.75272404474124</v>
       </c>
       <c r="J36" t="n">
-        <v>151.0252292810505</v>
+        <v>178.1789471685047</v>
       </c>
       <c r="K36" t="n">
-        <v>314.1238438647558</v>
+        <v>341.27756175221</v>
       </c>
       <c r="L36" t="n">
-        <v>533.4300587917279</v>
+        <v>560.5837766791823</v>
       </c>
       <c r="M36" t="n">
-        <v>789.3500676056088</v>
+        <v>816.5037854930632</v>
       </c>
       <c r="N36" t="n">
-        <v>1052.04351753904</v>
+        <v>1079.197235426495</v>
       </c>
       <c r="O36" t="n">
-        <v>1292.356702896953</v>
+        <v>1319.510420784407</v>
       </c>
       <c r="P36" t="n">
         <v>1485.229220531343</v>
@@ -7071,49 +7071,49 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1060.910464032887</v>
+        <v>654.6828592324669</v>
       </c>
       <c r="C37" t="n">
-        <v>919.9463162176586</v>
+        <v>521.6323966480188</v>
       </c>
       <c r="D37" t="n">
-        <v>754.0683234191813</v>
+        <v>521.6323966480188</v>
       </c>
       <c r="E37" t="n">
-        <v>584.3103196699185</v>
+        <v>521.6323966480188</v>
       </c>
       <c r="F37" t="n">
-        <v>407.6032656316747</v>
+        <v>344.925342609775</v>
       </c>
       <c r="G37" t="n">
-        <v>242.8759637174711</v>
+        <v>180.1980406955714</v>
       </c>
       <c r="H37" t="n">
-        <v>110.6552953410227</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I37" t="n">
-        <v>47.97737231912298</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="J37" t="n">
-        <v>194.4244032063441</v>
+        <v>107.8447180416543</v>
       </c>
       <c r="K37" t="n">
-        <v>292.8048427503778</v>
+        <v>346.9880041123252</v>
       </c>
       <c r="L37" t="n">
-        <v>836.9078159348589</v>
+        <v>891.0909772968064</v>
       </c>
       <c r="M37" t="n">
-        <v>1429.128296500574</v>
+        <v>1023.827590681609</v>
       </c>
       <c r="N37" t="n">
-        <v>1558.708729900004</v>
+        <v>1153.408024081039</v>
       </c>
       <c r="O37" t="n">
-        <v>2098.066482571062</v>
+        <v>1692.765776752097</v>
       </c>
       <c r="P37" t="n">
-        <v>2200.4806740964</v>
+        <v>2142.686862247777</v>
       </c>
       <c r="Q37" t="n">
         <v>2381.785914783478</v>
@@ -7122,25 +7122,25 @@
         <v>2398.868615956149</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.683941399238</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T37" t="n">
-        <v>2012.496016233923</v>
+        <v>2156.680690790835</v>
       </c>
       <c r="U37" t="n">
-        <v>2012.496016233923</v>
+        <v>1878.294815847211</v>
       </c>
       <c r="V37" t="n">
-        <v>1725.540508104354</v>
+        <v>1591.339307717642</v>
       </c>
       <c r="W37" t="n">
-        <v>1725.540508104354</v>
+        <v>1319.312903303933</v>
       </c>
       <c r="X37" t="n">
-        <v>1480.148753437766</v>
+        <v>1073.921148637346</v>
       </c>
       <c r="Y37" t="n">
-        <v>1252.729082751875</v>
+        <v>846.501477951454</v>
       </c>
     </row>
     <row r="38">
@@ -7150,25 +7150,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1126.823242315643</v>
+        <v>1571.440028835113</v>
       </c>
       <c r="C38" t="n">
-        <v>1126.823242315643</v>
+        <v>1133.297556018537</v>
       </c>
       <c r="D38" t="n">
-        <v>690.9134574900872</v>
+        <v>697.3877711929813</v>
       </c>
       <c r="E38" t="n">
-        <v>690.9134574900872</v>
+        <v>263.6130263512765</v>
       </c>
       <c r="F38" t="n">
-        <v>317.3820628238382</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="G38" t="n">
-        <v>317.3820628238382</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="H38" t="n">
-        <v>47.97737231912298</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I38" t="n">
         <v>120.3463876521525</v>
@@ -7177,10 +7177,10 @@
         <v>280.566872447263</v>
       </c>
       <c r="K38" t="n">
-        <v>520.6958462790548</v>
+        <v>520.6958462790549</v>
       </c>
       <c r="L38" t="n">
-        <v>818.5970719737413</v>
+        <v>818.5970719737414</v>
       </c>
       <c r="M38" t="n">
         <v>1150.069584980171</v>
@@ -7189,10 +7189,10 @@
         <v>1486.905669790887</v>
       </c>
       <c r="O38" t="n">
-        <v>1804.970433130814</v>
+        <v>1804.970433130815</v>
       </c>
       <c r="P38" t="n">
-        <v>2076.431349953069</v>
+        <v>2076.43134995307</v>
       </c>
       <c r="Q38" t="n">
         <v>2280.287193219309</v>
@@ -7201,25 +7201,25 @@
         <v>2398.868615956149</v>
       </c>
       <c r="S38" t="n">
-        <v>2359.107284025646</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T38" t="n">
-        <v>2359.107284025646</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="U38" t="n">
-        <v>2359.107284025646</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="V38" t="n">
-        <v>2359.107284025646</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="W38" t="n">
-        <v>1954.251829436679</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="X38" t="n">
-        <v>1535.10936601599</v>
+        <v>1979.72615253546</v>
       </c>
       <c r="Y38" t="n">
-        <v>1126.823242315643</v>
+        <v>1571.440028835113</v>
       </c>
     </row>
     <row r="39">
@@ -7244,37 +7244,37 @@
         <v>164.1146899932298</v>
       </c>
       <c r="G39" t="n">
-        <v>79.76014376868002</v>
+        <v>79.76014376868005</v>
       </c>
       <c r="H39" t="n">
-        <v>47.97737231912298</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I39" t="n">
-        <v>55.59900615728705</v>
+        <v>82.75272404474124</v>
       </c>
       <c r="J39" t="n">
-        <v>151.0252292810505</v>
+        <v>178.1789471685047</v>
       </c>
       <c r="K39" t="n">
-        <v>314.1238438647558</v>
+        <v>341.27756175221</v>
       </c>
       <c r="L39" t="n">
-        <v>533.4300587917279</v>
+        <v>560.5837766791823</v>
       </c>
       <c r="M39" t="n">
-        <v>789.3500676056088</v>
+        <v>816.5037854930632</v>
       </c>
       <c r="N39" t="n">
-        <v>1052.04351753904</v>
+        <v>1079.197235426495</v>
       </c>
       <c r="O39" t="n">
-        <v>1292.356702896953</v>
+        <v>1319.510420784407</v>
       </c>
       <c r="P39" t="n">
-        <v>1485.229220531343</v>
+        <v>1512.382938418798</v>
       </c>
       <c r="Q39" t="n">
-        <v>1614.159390801712</v>
+        <v>1641.313108689166</v>
       </c>
       <c r="R39" t="n">
         <v>1676.870203416725</v>
@@ -7308,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>556.1750803836381</v>
+        <v>654.6828592324669</v>
       </c>
       <c r="C40" t="n">
-        <v>383.6133688668631</v>
+        <v>482.1211477156918</v>
       </c>
       <c r="D40" t="n">
-        <v>217.7353760683857</v>
+        <v>394.4424301066296</v>
       </c>
       <c r="E40" t="n">
-        <v>47.97737231912298</v>
+        <v>224.6844263573668</v>
       </c>
       <c r="F40" t="n">
-        <v>47.97737231912298</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="G40" t="n">
-        <v>47.97737231912298</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="H40" t="n">
-        <v>47.97737231912298</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="I40" t="n">
-        <v>47.97737231912298</v>
+        <v>47.97737231912299</v>
       </c>
       <c r="J40" t="n">
-        <v>107.8447180416542</v>
+        <v>107.8447180416543</v>
       </c>
       <c r="K40" t="n">
-        <v>480.9836121568235</v>
+        <v>346.9880041123252</v>
       </c>
       <c r="L40" t="n">
-        <v>1025.086585341305</v>
+        <v>891.0909772968064</v>
       </c>
       <c r="M40" t="n">
-        <v>1516.937705584419</v>
+        <v>1023.827590681609</v>
       </c>
       <c r="N40" t="n">
-        <v>2088.776942141494</v>
+        <v>1153.408024081039</v>
       </c>
       <c r="O40" t="n">
-        <v>2208.465445586771</v>
+        <v>1692.765776752097</v>
       </c>
       <c r="P40" t="n">
-        <v>2310.879637112109</v>
+        <v>2142.686862247777</v>
       </c>
       <c r="Q40" t="n">
         <v>2381.785914783478</v>
@@ -7359,25 +7359,25 @@
         <v>2398.868615956149</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.683941399238</v>
+        <v>2398.868615956149</v>
       </c>
       <c r="T40" t="n">
-        <v>2012.496016233923</v>
+        <v>2156.680690790835</v>
       </c>
       <c r="U40" t="n">
-        <v>1734.1101412903</v>
+        <v>1878.294815847211</v>
       </c>
       <c r="V40" t="n">
-        <v>1447.15463316073</v>
+        <v>1591.339307717642</v>
       </c>
       <c r="W40" t="n">
-        <v>1175.128228747022</v>
+        <v>1319.312903303933</v>
       </c>
       <c r="X40" t="n">
-        <v>929.7364740804344</v>
+        <v>1073.921148637346</v>
       </c>
       <c r="Y40" t="n">
-        <v>747.9936991026252</v>
+        <v>846.501477951454</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1183.391965231207</v>
+        <v>1349.897059552047</v>
       </c>
       <c r="C41" t="n">
-        <v>745.2494924146305</v>
+        <v>911.7545867354708</v>
       </c>
       <c r="D41" t="n">
-        <v>745.2494924146305</v>
+        <v>475.8448019099152</v>
       </c>
       <c r="E41" t="n">
-        <v>745.2494924146305</v>
+        <v>475.8448019099152</v>
       </c>
       <c r="F41" t="n">
-        <v>317.3820628238382</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="G41" t="n">
-        <v>317.3820628238382</v>
+        <v>47.97737231912298</v>
       </c>
       <c r="H41" t="n">
         <v>47.97737231912298</v>
       </c>
       <c r="I41" t="n">
-        <v>120.3463876521526</v>
+        <v>120.3463876521521</v>
       </c>
       <c r="J41" t="n">
-        <v>280.5668724472629</v>
+        <v>280.5668724472624</v>
       </c>
       <c r="K41" t="n">
-        <v>520.6958462790548</v>
+        <v>520.6958462790542</v>
       </c>
       <c r="L41" t="n">
-        <v>818.5970719737413</v>
+        <v>818.5970719737406</v>
       </c>
       <c r="M41" t="n">
-        <v>1150.069584980171</v>
+        <v>1150.06958498017</v>
       </c>
       <c r="N41" t="n">
         <v>1486.905669790887</v>
       </c>
       <c r="O41" t="n">
-        <v>1804.970433130815</v>
+        <v>1804.970433130814</v>
       </c>
       <c r="P41" t="n">
         <v>2076.431349953069</v>
@@ -7441,22 +7441,22 @@
         <v>2359.107284025646</v>
       </c>
       <c r="T41" t="n">
-        <v>2147.471470924114</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="U41" t="n">
-        <v>1888.403254619665</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="V41" t="n">
-        <v>1888.403254619665</v>
+        <v>2359.107284025646</v>
       </c>
       <c r="W41" t="n">
-        <v>1888.403254619665</v>
+        <v>1954.251829436679</v>
       </c>
       <c r="X41" t="n">
-        <v>1591.678088931554</v>
+        <v>1535.10936601599</v>
       </c>
       <c r="Y41" t="n">
-        <v>1183.391965231207</v>
+        <v>1535.10936601599</v>
       </c>
     </row>
     <row r="42">
@@ -7487,25 +7487,25 @@
         <v>47.97737231912298</v>
       </c>
       <c r="I42" t="n">
-        <v>82.75272404474121</v>
+        <v>82.75272404474123</v>
       </c>
       <c r="J42" t="n">
-        <v>178.1789471685046</v>
+        <v>151.0252292810501</v>
       </c>
       <c r="K42" t="n">
-        <v>341.27756175221</v>
+        <v>314.1238438647555</v>
       </c>
       <c r="L42" t="n">
-        <v>560.5837766791822</v>
+        <v>533.4300587917276</v>
       </c>
       <c r="M42" t="n">
-        <v>816.5037854930631</v>
+        <v>789.3500676056086</v>
       </c>
       <c r="N42" t="n">
-        <v>1079.197235426494</v>
+        <v>1052.04351753904</v>
       </c>
       <c r="O42" t="n">
-        <v>1319.510420784407</v>
+        <v>1292.356702896953</v>
       </c>
       <c r="P42" t="n">
         <v>1485.229220531343</v>
@@ -7545,46 +7545,46 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>725.0477248193102</v>
+        <v>584.3103196699185</v>
       </c>
       <c r="C43" t="n">
-        <v>725.0477248193102</v>
+        <v>584.3103196699185</v>
       </c>
       <c r="D43" t="n">
-        <v>559.169732020833</v>
+        <v>584.3103196699185</v>
       </c>
       <c r="E43" t="n">
-        <v>389.4117282715703</v>
+        <v>584.3103196699185</v>
       </c>
       <c r="F43" t="n">
-        <v>212.7046742333265</v>
+        <v>407.6032656316747</v>
       </c>
       <c r="G43" t="n">
-        <v>47.97737231912298</v>
+        <v>242.8759637174711</v>
       </c>
       <c r="H43" t="n">
-        <v>47.97737231912298</v>
+        <v>110.6552953410227</v>
       </c>
       <c r="I43" t="n">
         <v>47.97737231912298</v>
       </c>
       <c r="J43" t="n">
-        <v>107.8447180416542</v>
+        <v>107.8447180416543</v>
       </c>
       <c r="K43" t="n">
-        <v>206.2251575856879</v>
+        <v>346.9880041123247</v>
       </c>
       <c r="L43" t="n">
-        <v>750.3281307701691</v>
+        <v>891.0909772968059</v>
       </c>
       <c r="M43" t="n">
-        <v>1342.548611335884</v>
+        <v>1023.827590681608</v>
       </c>
       <c r="N43" t="n">
-        <v>1500.91491805138</v>
+        <v>1153.408024081038</v>
       </c>
       <c r="O43" t="n">
-        <v>2040.272670722438</v>
+        <v>1692.765776752097</v>
       </c>
       <c r="P43" t="n">
         <v>2142.686862247777</v>
@@ -7599,22 +7599,22 @@
         <v>2254.683941399238</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.045556377678</v>
+        <v>2012.496016233923</v>
       </c>
       <c r="U43" t="n">
-        <v>1948.659681434055</v>
+        <v>1734.1101412903</v>
       </c>
       <c r="V43" t="n">
-        <v>1661.704173304485</v>
+        <v>1447.15463316073</v>
       </c>
       <c r="W43" t="n">
-        <v>1389.677768890777</v>
+        <v>1175.128228747022</v>
       </c>
       <c r="X43" t="n">
-        <v>1144.286014224189</v>
+        <v>929.7364740804344</v>
       </c>
       <c r="Y43" t="n">
-        <v>916.8663435382973</v>
+        <v>702.3168033945426</v>
       </c>
     </row>
     <row r="44">
@@ -7624,37 +7624,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1721.171900439207</v>
+        <v>1783.671804393752</v>
       </c>
       <c r="C44" t="n">
-        <v>1283.02942762263</v>
+        <v>1345.529331577176</v>
       </c>
       <c r="D44" t="n">
-        <v>1144.721244059687</v>
+        <v>909.6195467516201</v>
       </c>
       <c r="E44" t="n">
-        <v>1144.721244059687</v>
+        <v>475.8448019099152</v>
       </c>
       <c r="F44" t="n">
-        <v>716.8538144688943</v>
+        <v>47.977372319123</v>
       </c>
       <c r="G44" t="n">
-        <v>317.3820628238382</v>
+        <v>47.977372319123</v>
       </c>
       <c r="H44" t="n">
-        <v>47.97737231912299</v>
+        <v>47.977372319123</v>
       </c>
       <c r="I44" t="n">
-        <v>120.3463876521521</v>
+        <v>120.3463876521526</v>
       </c>
       <c r="J44" t="n">
         <v>280.5668724472631</v>
       </c>
       <c r="K44" t="n">
-        <v>520.6958462790549</v>
+        <v>520.695846279055</v>
       </c>
       <c r="L44" t="n">
-        <v>818.5970719737413</v>
+        <v>818.5970719737415</v>
       </c>
       <c r="M44" t="n">
         <v>1150.069584980171</v>
@@ -7669,31 +7669,31 @@
         <v>2076.43134995307</v>
       </c>
       <c r="Q44" t="n">
-        <v>2280.287193219309</v>
+        <v>2280.28719321931</v>
       </c>
       <c r="R44" t="n">
-        <v>2398.868615956149</v>
+        <v>2398.86861595615</v>
       </c>
       <c r="S44" t="n">
-        <v>2359.107284025646</v>
+        <v>2359.107284025647</v>
       </c>
       <c r="T44" t="n">
-        <v>2147.471470924114</v>
+        <v>2209.97137487866</v>
       </c>
       <c r="U44" t="n">
-        <v>2147.471470924114</v>
+        <v>2209.97137487866</v>
       </c>
       <c r="V44" t="n">
-        <v>2147.471470924114</v>
+        <v>2209.97137487866</v>
       </c>
       <c r="W44" t="n">
-        <v>2147.471470924114</v>
+        <v>2209.97137487866</v>
       </c>
       <c r="X44" t="n">
-        <v>2147.471470924114</v>
+        <v>2209.97137487866</v>
       </c>
       <c r="Y44" t="n">
-        <v>2147.471470924114</v>
+        <v>2209.97137487866</v>
       </c>
     </row>
     <row r="45">
@@ -7721,34 +7721,34 @@
         <v>79.76014376868005</v>
       </c>
       <c r="H45" t="n">
-        <v>47.97737231912299</v>
+        <v>47.977372319123</v>
       </c>
       <c r="I45" t="n">
-        <v>82.75272404474124</v>
+        <v>82.75272404474126</v>
       </c>
       <c r="J45" t="n">
-        <v>151.0252292810501</v>
+        <v>178.1789471685047</v>
       </c>
       <c r="K45" t="n">
-        <v>314.1238438647555</v>
+        <v>341.27756175221</v>
       </c>
       <c r="L45" t="n">
-        <v>533.4300587917276</v>
+        <v>560.5837766791823</v>
       </c>
       <c r="M45" t="n">
-        <v>789.3500676056086</v>
+        <v>816.5037854930633</v>
       </c>
       <c r="N45" t="n">
-        <v>1052.04351753904</v>
+        <v>1079.197235426495</v>
       </c>
       <c r="O45" t="n">
-        <v>1292.356702896953</v>
+        <v>1319.510420784407</v>
       </c>
       <c r="P45" t="n">
-        <v>1485.229220531343</v>
+        <v>1512.382938418798</v>
       </c>
       <c r="Q45" t="n">
-        <v>1614.159390801712</v>
+        <v>1641.313108689166</v>
       </c>
       <c r="R45" t="n">
         <v>1676.870203416725</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>510.4981846755559</v>
+        <v>573.481258430152</v>
       </c>
       <c r="C46" t="n">
-        <v>337.9364731587809</v>
+        <v>573.481258430152</v>
       </c>
       <c r="D46" t="n">
-        <v>224.6844263573668</v>
+        <v>407.6032656316747</v>
       </c>
       <c r="E46" t="n">
-        <v>224.6844263573668</v>
+        <v>407.6032656316747</v>
       </c>
       <c r="F46" t="n">
-        <v>47.97737231912299</v>
+        <v>407.6032656316747</v>
       </c>
       <c r="G46" t="n">
-        <v>47.97737231912299</v>
+        <v>242.8759637174712</v>
       </c>
       <c r="H46" t="n">
-        <v>47.97737231912299</v>
+        <v>110.6552953410227</v>
       </c>
       <c r="I46" t="n">
-        <v>47.97737231912299</v>
+        <v>47.977372319123</v>
       </c>
       <c r="J46" t="n">
         <v>107.8447180416543</v>
       </c>
       <c r="K46" t="n">
-        <v>206.2251575856879</v>
+        <v>480.9836121568235</v>
       </c>
       <c r="L46" t="n">
-        <v>750.3281307701691</v>
+        <v>1025.086585341305</v>
       </c>
       <c r="M46" t="n">
-        <v>1023.827590681609</v>
+        <v>1157.823198726107</v>
       </c>
       <c r="N46" t="n">
-        <v>1153.408024081039</v>
+        <v>1287.403632125537</v>
       </c>
       <c r="O46" t="n">
-        <v>1692.765776752097</v>
+        <v>1692.765776752098</v>
       </c>
       <c r="P46" t="n">
-        <v>2142.686862247777</v>
+        <v>2142.686862247778</v>
       </c>
       <c r="Q46" t="n">
-        <v>2381.785914783478</v>
+        <v>2381.785914783479</v>
       </c>
       <c r="R46" t="n">
-        <v>2398.868615956149</v>
+        <v>2398.86861595615</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.683941399238</v>
+        <v>2254.683941399239</v>
       </c>
       <c r="T46" t="n">
         <v>2012.496016233924</v>
       </c>
       <c r="U46" t="n">
-        <v>1734.1101412903</v>
+        <v>1734.110141290301</v>
       </c>
       <c r="V46" t="n">
         <v>1447.154633160731</v>
       </c>
       <c r="W46" t="n">
-        <v>1175.128228747022</v>
+        <v>1175.128228747023</v>
       </c>
       <c r="X46" t="n">
-        <v>929.7364740804348</v>
+        <v>929.7364740804353</v>
       </c>
       <c r="Y46" t="n">
-        <v>702.3168033945431</v>
+        <v>702.3168033945435</v>
       </c>
     </row>
   </sheetData>
@@ -8847,13 +8847,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>160.1135322034996</v>
+        <v>174.6764917077922</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645587</v>
@@ -8862,10 +8862,10 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -9084,22 +9084,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>277.5337924960966</v>
+        <v>117.8928536736905</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080415</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
         <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>201.1050060773671</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9324,25 +9324,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>216.3673860643098</v>
       </c>
       <c r="N19" t="n">
-        <v>287.0851249731946</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P19" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9561,22 +9561,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>34.54259274730748</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>176.1506002510455</v>
       </c>
       <c r="P22" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>45.61467083217781</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9658,10 +9658,10 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>542.2740595303258</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>148.2375309151107</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9801,16 +9801,16 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
         <v>464.1251183645587</v>
       </c>
       <c r="N25" t="n">
-        <v>323.3945095320582</v>
+        <v>324.8686180753111</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>351.0170646165068</v>
@@ -9874,7 +9874,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9883,13 +9883,13 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>413.3683325200325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>174.5203978424706</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
@@ -9898,7 +9898,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>148.2375309151107</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10032,16 +10032,16 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>134.0143649576914</v>
       </c>
       <c r="M28" t="n">
-        <v>340.7935641010163</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
@@ -10053,7 +10053,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>417.0260386927482</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
@@ -10126,16 +10126,16 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>113.9026239190628</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>473.986106443441</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10272,7 +10272,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
         <v>422.4342240080415</v>
@@ -10281,10 +10281,10 @@
         <v>464.1251183645587</v>
       </c>
       <c r="N31" t="n">
-        <v>178.4940780201132</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>423.9083325512944</v>
+        <v>324.8686180753114</v>
       </c>
       <c r="P31" t="n">
         <v>351.0170646165068</v>
@@ -10348,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>417.0260386927489</v>
+        <v>417.0260386927482</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10509,13 +10509,13 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L34" t="n">
-        <v>324.0939300147086</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645587</v>
+        <v>88.25103187512809</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>142.1846934612498</v>
       </c>
       <c r="L37" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -10761,10 +10761,10 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q37" t="n">
-        <v>111.5141040562712</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -10983,25 +10983,25 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>142.1846934612498</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
-        <v>362.7419261195075</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P40" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11220,22 +11220,22 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>142.1846934612493</v>
       </c>
       <c r="L43" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>464.1251183645587</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>29.07663971319789</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
         <v>169.8916917821538</v>
@@ -11457,19 +11457,19 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>142.1846934612498</v>
+        <v>0</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512944</v>
+        <v>288.5592335164483</v>
       </c>
       <c r="P46" t="n">
         <v>351.0170646165068</v>
@@ -23266,7 +23266,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>267.3064887309669</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>39.36371861119832</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>209.5194549705165</v>
@@ -23320,10 +23320,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>213.7986313763624</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -23427,13 +23427,13 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0800288950615</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>75.44225445506964</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.7428278113418</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>95.4269044240242</v>
+        <v>275.6020161941874</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="14">
@@ -23494,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>206.7130953827864</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>39.36371861119832</v>
+        <v>39.36371861119833</v>
       </c>
       <c r="T14" t="n">
         <v>209.5194549705165</v>
@@ -23554,7 +23554,7 @@
         <v>256.4775341414042</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>126.7527663577697</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23655,13 +23655,13 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>94.55039870356958</v>
+        <v>130.898461692684</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.05114379168072</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>142.7428278113418</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>239.7660459136613</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>0.731265418921339</v>
       </c>
     </row>
     <row r="17">
@@ -23731,25 +23731,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>212.8383845992829</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,13 +23788,13 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4775341414042</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>197.0734624752795</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>414.9510387864824</v>
@@ -23889,13 +23889,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>77.41728243752132</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.0800288950615</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>130.898461692684</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.05114379168072</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23940,7 +23940,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>102.203359048218</v>
+        <v>142.7428278113418</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -23968,22 +23968,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>24.74374105544172</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>242.0727538010219</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H20" t="n">
         <v>266.7106435996681</v>
@@ -24025,16 +24025,16 @@
         <v>209.5194549705165</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24129,25 +24129,25 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
-        <v>168.0604237117701</v>
+        <v>55.94089737837061</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.0800288950615</v>
       </c>
       <c r="H22" t="n">
         <v>130.898461692684</v>
       </c>
       <c r="I22" t="n">
-        <v>62.05114379168071</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,7 +24186,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>44.34362103054673</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24214,16 +24214,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,25 +24256,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T23" t="n">
-        <v>77.4266211872087</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U23" t="n">
         <v>256.4775341414042</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W23" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>404.2032624633431</v>
+        <v>55.95628795482224</v>
       </c>
     </row>
     <row r="24">
@@ -24451,13 +24451,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>267.7255613201751</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>296.1132332017992</v>
       </c>
       <c r="H26" t="n">
         <v>266.7106435996681</v>
@@ -24496,22 +24496,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>209.5194549705165</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24682,22 +24682,22 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D29" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>198.5611104270931</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -24730,22 +24730,22 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>39.36371861119832</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>209.5194549705165</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>68.4213335560803</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>404.2032624633431</v>
@@ -24916,25 +24916,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>429.4369973932878</v>
+        <v>104.7740923377231</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
         <v>395.4770341286055</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -24967,22 +24967,22 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>39.36371861119832</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>209.5194549705165</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>55.9178871538366</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25159,16 +25159,16 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>430.3625340345564</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H35" t="n">
         <v>266.7106435996681</v>
@@ -25207,7 +25207,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>35.31536426354785</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.4775341414042</v>
@@ -25216,13 +25216,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W35" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,13 +25314,13 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>31.28158806453084</v>
+        <v>39.11613644300377</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25332,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,19 +25362,19 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.7428278113418</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6020161941874</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25393,22 +25393,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>53.79267457529784</v>
+        <v>210.1094578030524</v>
       </c>
       <c r="G38" t="n">
         <v>395.4770341286055</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>39.36371861119832</v>
       </c>
       <c r="T38" t="n">
         <v>209.5194549705165</v>
@@ -25453,7 +25453,7 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>77.41728243752092</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>163.0800288950615</v>
@@ -25569,7 +25569,7 @@
         <v>130.898461692684</v>
       </c>
       <c r="I40" t="n">
-        <v>62.05114379168071</v>
+        <v>62.0511437916807</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25599,7 +25599,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>142.7428278113418</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25617,7 +25617,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>45.22012675100171</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>238.6763913807561</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
@@ -25645,7 +25645,7 @@
         <v>395.4770341286055</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,22 +25681,22 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.5194549705165</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4775341414042</v>
       </c>
       <c r="V41" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>121.1931247552521</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -25785,16 +25785,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>73.07401364441938</v>
       </c>
       <c r="C43" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>130.898461692684</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>62.05114379168071</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25839,7 +25839,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>212.4040447423172</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25870,19 +25870,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>294.6255852499859</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>395.4770341286055</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>266.7106435996681</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>61.87490491499972</v>
       </c>
       <c r="U44" t="n">
         <v>256.4775341414042</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>62.35324301704966</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>52.09968653709259</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0800288950615</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>130.898461692684</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>62.0511437916807</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>297779.1892773044</v>
+        <v>297779.1892773043</v>
       </c>
     </row>
     <row r="6">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>297779.1892773044</v>
+        <v>297779.1892773045</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>381986.0576722754</v>
+        <v>381986.0576722753</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>381986.0576722754</v>
+        <v>381986.0576722753</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>381986.0576722755</v>
+        <v>381986.0576722753</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>297779.1892773044</v>
+        <v>297779.1892773043</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>297779.1892773044</v>
+        <v>297779.1892773045</v>
       </c>
     </row>
   </sheetData>
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>457961.5537785678</v>
+      </c>
+      <c r="C2" t="n">
         <v>457961.5537785679</v>
-      </c>
-      <c r="C2" t="n">
-        <v>457961.5537785678</v>
       </c>
       <c r="D2" t="n">
         <v>457961.5537785679</v>
@@ -26331,19 +26331,19 @@
         <v>278760.2955964219</v>
       </c>
       <c r="H2" t="n">
-        <v>278760.295596422</v>
+        <v>278760.2955964219</v>
       </c>
       <c r="I2" t="n">
         <v>330991.8959469764</v>
       </c>
       <c r="J2" t="n">
+        <v>330991.8959469764</v>
+      </c>
+      <c r="K2" t="n">
+        <v>330991.8959469764</v>
+      </c>
+      <c r="L2" t="n">
         <v>330991.8959469763</v>
-      </c>
-      <c r="K2" t="n">
-        <v>330991.8959469765</v>
-      </c>
-      <c r="L2" t="n">
-        <v>330991.8959469764</v>
       </c>
       <c r="M2" t="n">
         <v>278760.2955964219</v>
@@ -26355,7 +26355,7 @@
         <v>278760.2955964219</v>
       </c>
       <c r="P2" t="n">
-        <v>278760.2955964219</v>
+        <v>278760.295596422</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>560133.4314193972</v>
+        <v>560133.431419397</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="C4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="D4" t="n">
-        <v>298730.7163118328</v>
+        <v>298730.7163118329</v>
       </c>
       <c r="E4" t="n">
         <v>19492.55639130573</v>
@@ -26435,31 +26435,31 @@
         <v>19492.55639130573</v>
       </c>
       <c r="H4" t="n">
+        <v>19492.55639130573</v>
+      </c>
+      <c r="I4" t="n">
+        <v>51559.18234442058</v>
+      </c>
+      <c r="J4" t="n">
+        <v>51559.18234442058</v>
+      </c>
+      <c r="K4" t="n">
+        <v>51559.18234442059</v>
+      </c>
+      <c r="L4" t="n">
+        <v>51559.18234442058</v>
+      </c>
+      <c r="M4" t="n">
         <v>19492.55639130574</v>
       </c>
-      <c r="I4" t="n">
-        <v>51559.18234442063</v>
-      </c>
-      <c r="J4" t="n">
-        <v>51559.18234442062</v>
-      </c>
-      <c r="K4" t="n">
-        <v>51559.18234442064</v>
-      </c>
-      <c r="L4" t="n">
-        <v>51559.18234442062</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>19492.55639130574</v>
+      </c>
+      <c r="O4" t="n">
         <v>19492.55639130573</v>
       </c>
-      <c r="N4" t="n">
-        <v>19492.55639130573</v>
-      </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>19492.55639130574</v>
-      </c>
-      <c r="P4" t="n">
-        <v>19492.55639130573</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>46803.00533885189</v>
+        <v>46803.00533885188</v>
       </c>
       <c r="F5" t="n">
         <v>46803.00533885189</v>
@@ -26490,16 +26490,16 @@
         <v>46803.00533885189</v>
       </c>
       <c r="I5" t="n">
-        <v>55830.09678221408</v>
+        <v>55830.09678221407</v>
       </c>
       <c r="J5" t="n">
         <v>55830.09678221407</v>
       </c>
       <c r="K5" t="n">
-        <v>55830.09678221408</v>
+        <v>55830.09678221407</v>
       </c>
       <c r="L5" t="n">
-        <v>55830.09678221408</v>
+        <v>55830.09678221407</v>
       </c>
       <c r="M5" t="n">
         <v>46803.00533885189</v>
@@ -26511,7 +26511,7 @@
         <v>46803.00533885189</v>
       </c>
       <c r="P5" t="n">
-        <v>46803.00533885189</v>
+        <v>46803.0053388519</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>125603.2374667351</v>
+        <v>125571.3307492334</v>
       </c>
       <c r="C6" t="n">
-        <v>125603.237466735</v>
+        <v>125571.3307492334</v>
       </c>
       <c r="D6" t="n">
-        <v>125603.2374667351</v>
+        <v>125571.3307492335</v>
       </c>
       <c r="E6" t="n">
-        <v>-347668.6975531329</v>
+        <v>-348212.6078654404</v>
       </c>
       <c r="F6" t="n">
-        <v>212464.7338662643</v>
+        <v>211920.8235539566</v>
       </c>
       <c r="G6" t="n">
-        <v>212464.7338662643</v>
+        <v>211920.8235539566</v>
       </c>
       <c r="H6" t="n">
-        <v>212464.7338662644</v>
+        <v>211920.8235539566</v>
       </c>
       <c r="I6" t="n">
-        <v>184120.8210356326</v>
+        <v>183726.1438671836</v>
       </c>
       <c r="J6" t="n">
-        <v>223602.6168203416</v>
+        <v>223207.9396518928</v>
       </c>
       <c r="K6" t="n">
-        <v>223602.6168203418</v>
+        <v>223207.9396518928</v>
       </c>
       <c r="L6" t="n">
-        <v>223602.6168203417</v>
+        <v>223207.9396518927</v>
       </c>
       <c r="M6" t="n">
-        <v>100012.611277061</v>
+        <v>99468.70096475337</v>
       </c>
       <c r="N6" t="n">
-        <v>212464.7338662643</v>
+        <v>211920.8235539566</v>
       </c>
       <c r="O6" t="n">
-        <v>212464.7338662643</v>
+        <v>211920.8235539566</v>
       </c>
       <c r="P6" t="n">
-        <v>212464.7338662643</v>
+        <v>211920.8235539567</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>474.3212099228635</v>
+      </c>
+      <c r="F3" t="n">
+        <v>474.3212099228635</v>
+      </c>
+      <c r="G3" t="n">
+        <v>474.3212099228635</v>
+      </c>
+      <c r="H3" t="n">
         <v>474.3212099228636</v>
       </c>
-      <c r="F3" t="n">
+      <c r="I3" t="n">
         <v>474.3212099228636</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
         <v>474.3212099228636</v>
       </c>
-      <c r="H3" t="n">
-        <v>474.3212099228635</v>
-      </c>
-      <c r="I3" t="n">
-        <v>474.3212099228635</v>
-      </c>
-      <c r="J3" t="n">
-        <v>474.3212099228635</v>
-      </c>
       <c r="K3" t="n">
-        <v>474.3212099228635</v>
+        <v>474.3212099228636</v>
       </c>
       <c r="L3" t="n">
-        <v>474.3212099228635</v>
+        <v>474.3212099228636</v>
       </c>
       <c r="M3" t="n">
-        <v>474.3212099228635</v>
+        <v>474.3212099228636</v>
       </c>
       <c r="N3" t="n">
-        <v>474.3212099228635</v>
+        <v>474.3212099228636</v>
       </c>
       <c r="O3" t="n">
-        <v>474.3212099228635</v>
+        <v>474.3212099228636</v>
       </c>
       <c r="P3" t="n">
-        <v>474.3212099228636</v>
+        <v>474.3212099228637</v>
       </c>
     </row>
     <row r="4">
@@ -26798,40 +26798,40 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>599.7171539890373</v>
+        <v>599.7171539890371</v>
       </c>
       <c r="F4" t="n">
-        <v>599.7171539890373</v>
+        <v>599.7171539890372</v>
       </c>
       <c r="G4" t="n">
-        <v>599.7171539890373</v>
+        <v>599.7171539890372</v>
       </c>
       <c r="H4" t="n">
-        <v>599.7171539890373</v>
+        <v>599.7171539890372</v>
       </c>
       <c r="I4" t="n">
-        <v>748.189052728547</v>
+        <v>748.1890527285469</v>
       </c>
       <c r="J4" t="n">
         <v>748.1890527285469</v>
       </c>
       <c r="K4" t="n">
-        <v>748.189052728547</v>
+        <v>748.1890527285469</v>
       </c>
       <c r="L4" t="n">
-        <v>748.189052728547</v>
+        <v>748.1890527285469</v>
       </c>
       <c r="M4" t="n">
-        <v>599.7171539890372</v>
+        <v>599.7171539890373</v>
       </c>
       <c r="N4" t="n">
-        <v>599.7171539890372</v>
+        <v>599.7171539890373</v>
       </c>
       <c r="O4" t="n">
         <v>599.7171539890372</v>
       </c>
       <c r="P4" t="n">
-        <v>599.7171539890373</v>
+        <v>599.7171539890375</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>474.3212099228636</v>
+        <v>474.3212099228635</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>599.7171539890373</v>
+        <v>599.7171539890371</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>599.7171539890373</v>
+        <v>599.7171539890371</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31755,43 +31755,43 @@
         <v>1.906818934363269</v>
       </c>
       <c r="H11" t="n">
-        <v>19.52820941154784</v>
+        <v>19.52820941154783</v>
       </c>
       <c r="I11" t="n">
-        <v>73.51263696704001</v>
+        <v>73.51263696704</v>
       </c>
       <c r="J11" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K11" t="n">
-        <v>242.5545190220119</v>
+        <v>242.5545190220118</v>
       </c>
       <c r="L11" t="n">
-        <v>300.9103289845319</v>
+        <v>300.9103289845318</v>
       </c>
       <c r="M11" t="n">
-        <v>334.8207202085147</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N11" t="n">
-        <v>340.2384695057743</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O11" t="n">
-        <v>321.2775387271996</v>
+        <v>321.2775387271994</v>
       </c>
       <c r="P11" t="n">
-        <v>274.2029462851063</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q11" t="n">
-        <v>205.9149931982217</v>
+        <v>205.9149931982216</v>
       </c>
       <c r="R11" t="n">
         <v>119.7792148856968</v>
       </c>
       <c r="S11" t="n">
-        <v>43.45163646680304</v>
+        <v>43.45163646680303</v>
       </c>
       <c r="T11" t="n">
-        <v>8.347099885175215</v>
+        <v>8.347099885175213</v>
       </c>
       <c r="U11" t="n">
         <v>0.1525455147490615</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.020238074173707</v>
+        <v>1.020238074173706</v>
       </c>
       <c r="H12" t="n">
-        <v>9.853351926888168</v>
+        <v>9.853351926888166</v>
       </c>
       <c r="I12" t="n">
         <v>35.1266179046649</v>
       </c>
       <c r="J12" t="n">
-        <v>96.39012436743779</v>
+        <v>68.9621265013225</v>
       </c>
       <c r="K12" t="n">
-        <v>137.3180774709604</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L12" t="n">
         <v>221.5214292191638</v>
@@ -31855,25 +31855,25 @@
         <v>265.3469191246782</v>
       </c>
       <c r="O12" t="n">
-        <v>242.7405912706187</v>
+        <v>242.7405912706186</v>
       </c>
       <c r="P12" t="n">
         <v>194.820724883223</v>
       </c>
       <c r="Q12" t="n">
-        <v>130.2324952225946</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R12" t="n">
-        <v>63.34425516667981</v>
+        <v>63.34425516667979</v>
       </c>
       <c r="S12" t="n">
-        <v>18.95047475493704</v>
+        <v>18.95047475493703</v>
       </c>
       <c r="T12" t="n">
-        <v>4.112275395463316</v>
+        <v>4.112275395463315</v>
       </c>
       <c r="U12" t="n">
-        <v>0.06712092593248073</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,22 +31910,22 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8553333293690982</v>
+        <v>0.855333329369098</v>
       </c>
       <c r="H13" t="n">
-        <v>7.604690873845261</v>
+        <v>7.604690873845259</v>
       </c>
       <c r="I13" t="n">
-        <v>25.72220594139071</v>
+        <v>25.7222059413907</v>
       </c>
       <c r="J13" t="n">
-        <v>60.47206638639524</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K13" t="n">
-        <v>99.37418135760976</v>
+        <v>99.37418135760973</v>
       </c>
       <c r="L13" t="n">
-        <v>127.1647388045658</v>
+        <v>127.1647388045657</v>
       </c>
       <c r="M13" t="n">
         <v>134.077387257376</v>
@@ -31940,7 +31940,7 @@
         <v>103.4486783084225</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.62250269835241</v>
+        <v>71.62250269835238</v>
       </c>
       <c r="R13" t="n">
         <v>38.45889679145053</v>
@@ -31949,10 +31949,10 @@
         <v>14.90612720364146</v>
       </c>
       <c r="T13" t="n">
-        <v>3.654606043667964</v>
+        <v>3.654606043667963</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0466545452383145</v>
+        <v>0.04665454523831449</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,43 +31992,43 @@
         <v>1.906818934363269</v>
       </c>
       <c r="H14" t="n">
-        <v>19.52820941154784</v>
+        <v>19.52820941154783</v>
       </c>
       <c r="I14" t="n">
-        <v>73.51263696704001</v>
+        <v>73.51263696704</v>
       </c>
       <c r="J14" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K14" t="n">
-        <v>242.5545190220119</v>
+        <v>242.5545190220118</v>
       </c>
       <c r="L14" t="n">
-        <v>300.9103289845319</v>
+        <v>300.9103289845318</v>
       </c>
       <c r="M14" t="n">
-        <v>334.8207202085147</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N14" t="n">
-        <v>340.2384695057743</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O14" t="n">
-        <v>321.2775387271996</v>
+        <v>321.2775387271994</v>
       </c>
       <c r="P14" t="n">
-        <v>274.2029462851063</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q14" t="n">
-        <v>205.9149931982217</v>
+        <v>205.9149931982216</v>
       </c>
       <c r="R14" t="n">
         <v>119.7792148856968</v>
       </c>
       <c r="S14" t="n">
-        <v>43.45163646680304</v>
+        <v>43.45163646680303</v>
       </c>
       <c r="T14" t="n">
-        <v>8.347099885175215</v>
+        <v>8.347099885175213</v>
       </c>
       <c r="U14" t="n">
         <v>0.1525455147490615</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>1.020238074173707</v>
+        <v>1.020238074173706</v>
       </c>
       <c r="H15" t="n">
-        <v>9.853351926888168</v>
+        <v>9.853351926888166</v>
       </c>
       <c r="I15" t="n">
         <v>35.1266179046649</v>
       </c>
       <c r="J15" t="n">
-        <v>96.39012436743779</v>
+        <v>96.39012436743778</v>
       </c>
       <c r="K15" t="n">
-        <v>137.3180774709604</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L15" t="n">
         <v>221.5214292191638</v>
@@ -32092,25 +32092,25 @@
         <v>265.3469191246782</v>
       </c>
       <c r="O15" t="n">
-        <v>242.7405912706187</v>
+        <v>242.7405912706186</v>
       </c>
       <c r="P15" t="n">
-        <v>194.820724883223</v>
+        <v>167.3927270171077</v>
       </c>
       <c r="Q15" t="n">
-        <v>130.2324952225946</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R15" t="n">
-        <v>63.34425516667981</v>
+        <v>63.34425516667979</v>
       </c>
       <c r="S15" t="n">
-        <v>18.95047475493704</v>
+        <v>18.95047475493703</v>
       </c>
       <c r="T15" t="n">
-        <v>4.112275395463316</v>
+        <v>4.112275395463315</v>
       </c>
       <c r="U15" t="n">
-        <v>0.06712092593248073</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,22 +32147,22 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8553333293690982</v>
+        <v>0.855333329369098</v>
       </c>
       <c r="H16" t="n">
-        <v>7.604690873845261</v>
+        <v>7.604690873845259</v>
       </c>
       <c r="I16" t="n">
-        <v>25.72220594139071</v>
+        <v>25.7222059413907</v>
       </c>
       <c r="J16" t="n">
-        <v>60.47206638639524</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K16" t="n">
-        <v>99.37418135760976</v>
+        <v>99.37418135760973</v>
       </c>
       <c r="L16" t="n">
-        <v>127.1647388045658</v>
+        <v>127.1647388045657</v>
       </c>
       <c r="M16" t="n">
         <v>134.077387257376</v>
@@ -32177,7 +32177,7 @@
         <v>103.4486783084225</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.62250269835241</v>
+        <v>71.62250269835238</v>
       </c>
       <c r="R16" t="n">
         <v>38.45889679145053</v>
@@ -32186,10 +32186,10 @@
         <v>14.90612720364146</v>
       </c>
       <c r="T16" t="n">
-        <v>3.654606043667964</v>
+        <v>3.654606043667963</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0466545452383145</v>
+        <v>0.04665454523831449</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32229,43 +32229,43 @@
         <v>1.906818934363269</v>
       </c>
       <c r="H17" t="n">
-        <v>19.52820941154784</v>
+        <v>19.52820941154783</v>
       </c>
       <c r="I17" t="n">
-        <v>73.51263696704001</v>
+        <v>73.51263696704</v>
       </c>
       <c r="J17" t="n">
-        <v>161.8388735304147</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K17" t="n">
-        <v>242.5545190220119</v>
+        <v>242.5545190220118</v>
       </c>
       <c r="L17" t="n">
-        <v>300.9103289845319</v>
+        <v>300.9103289845318</v>
       </c>
       <c r="M17" t="n">
-        <v>334.8207202085147</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N17" t="n">
-        <v>340.2384695057743</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O17" t="n">
-        <v>321.2775387271996</v>
+        <v>321.2775387271994</v>
       </c>
       <c r="P17" t="n">
-        <v>274.2029462851063</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q17" t="n">
-        <v>205.9149931982217</v>
+        <v>205.9149931982216</v>
       </c>
       <c r="R17" t="n">
         <v>119.7792148856968</v>
       </c>
       <c r="S17" t="n">
-        <v>43.45163646680304</v>
+        <v>43.45163646680303</v>
       </c>
       <c r="T17" t="n">
-        <v>8.347099885175215</v>
+        <v>8.347099885175213</v>
       </c>
       <c r="U17" t="n">
         <v>0.1525455147490615</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.020238074173707</v>
+        <v>1.020238074173706</v>
       </c>
       <c r="H18" t="n">
-        <v>9.853351926888168</v>
+        <v>9.853351926888166</v>
       </c>
       <c r="I18" t="n">
         <v>35.1266179046649</v>
       </c>
       <c r="J18" t="n">
-        <v>68.96212650132208</v>
+        <v>96.39012436743778</v>
       </c>
       <c r="K18" t="n">
-        <v>164.7460753370761</v>
+        <v>137.3180774709608</v>
       </c>
       <c r="L18" t="n">
         <v>221.5214292191638</v>
@@ -32329,25 +32329,25 @@
         <v>265.3469191246782</v>
       </c>
       <c r="O18" t="n">
-        <v>242.7405912706187</v>
+        <v>242.7405912706186</v>
       </c>
       <c r="P18" t="n">
         <v>194.820724883223</v>
       </c>
       <c r="Q18" t="n">
-        <v>130.2324952225946</v>
+        <v>130.2324952225945</v>
       </c>
       <c r="R18" t="n">
-        <v>63.34425516667981</v>
+        <v>63.34425516667979</v>
       </c>
       <c r="S18" t="n">
-        <v>18.95047475493704</v>
+        <v>18.95047475493703</v>
       </c>
       <c r="T18" t="n">
-        <v>4.112275395463316</v>
+        <v>4.112275395463315</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06712092593248073</v>
+        <v>0.06712092593248072</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,22 +32384,22 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8553333293690982</v>
+        <v>0.855333329369098</v>
       </c>
       <c r="H19" t="n">
-        <v>7.604690873845261</v>
+        <v>7.604690873845259</v>
       </c>
       <c r="I19" t="n">
-        <v>25.72220594139071</v>
+        <v>25.7222059413907</v>
       </c>
       <c r="J19" t="n">
-        <v>60.47206638639524</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K19" t="n">
-        <v>99.37418135760976</v>
+        <v>99.37418135760973</v>
       </c>
       <c r="L19" t="n">
-        <v>127.1647388045658</v>
+        <v>127.1647388045657</v>
       </c>
       <c r="M19" t="n">
         <v>134.077387257376</v>
@@ -32414,7 +32414,7 @@
         <v>103.4486783084225</v>
       </c>
       <c r="Q19" t="n">
-        <v>71.62250269835241</v>
+        <v>71.62250269835238</v>
       </c>
       <c r="R19" t="n">
         <v>38.45889679145053</v>
@@ -32423,10 +32423,10 @@
         <v>14.90612720364146</v>
       </c>
       <c r="T19" t="n">
-        <v>3.654606043667964</v>
+        <v>3.654606043667963</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0466545452383145</v>
+        <v>0.04665454523831449</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32466,13 +32466,13 @@
         <v>1.906818934363269</v>
       </c>
       <c r="H20" t="n">
-        <v>19.52820941154783</v>
+        <v>19.52820941154784</v>
       </c>
       <c r="I20" t="n">
         <v>73.51263696704001</v>
       </c>
       <c r="J20" t="n">
-        <v>161.8388735304146</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K20" t="n">
         <v>242.5545190220119</v>
@@ -32481,19 +32481,19 @@
         <v>300.9103289845319</v>
       </c>
       <c r="M20" t="n">
-        <v>334.8207202085146</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N20" t="n">
         <v>340.2384695057743</v>
       </c>
       <c r="O20" t="n">
-        <v>321.2775387271995</v>
+        <v>321.2775387271996</v>
       </c>
       <c r="P20" t="n">
-        <v>274.2029462851062</v>
+        <v>274.2029462851063</v>
       </c>
       <c r="Q20" t="n">
-        <v>205.9149931982216</v>
+        <v>205.9149931982217</v>
       </c>
       <c r="R20" t="n">
         <v>119.7792148856968</v>
@@ -32542,7 +32542,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.020238074173706</v>
+        <v>1.020238074173707</v>
       </c>
       <c r="H21" t="n">
         <v>9.853351926888168</v>
@@ -32551,7 +32551,7 @@
         <v>35.1266179046649</v>
       </c>
       <c r="J21" t="n">
-        <v>68.96212650132244</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K21" t="n">
         <v>164.7460753370761</v>
@@ -32569,13 +32569,13 @@
         <v>242.7405912706187</v>
       </c>
       <c r="P21" t="n">
-        <v>194.820724883223</v>
+        <v>167.3927270171073</v>
       </c>
       <c r="Q21" t="n">
-        <v>130.2324952225945</v>
+        <v>130.2324952225946</v>
       </c>
       <c r="R21" t="n">
-        <v>63.3442551666798</v>
+        <v>63.34425516667981</v>
       </c>
       <c r="S21" t="n">
         <v>18.95047475493704</v>
@@ -32584,7 +32584,7 @@
         <v>4.112275395463316</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06712092593248072</v>
+        <v>0.06712092593248073</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8553333293690981</v>
+        <v>0.8553333293690982</v>
       </c>
       <c r="H22" t="n">
-        <v>7.60469087384526</v>
+        <v>7.604690873845261</v>
       </c>
       <c r="I22" t="n">
-        <v>25.7222059413907</v>
+        <v>25.72220594139071</v>
       </c>
       <c r="J22" t="n">
-        <v>60.47206638639523</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K22" t="n">
-        <v>99.37418135760974</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L22" t="n">
         <v>127.1647388045658</v>
@@ -32651,7 +32651,7 @@
         <v>103.4486783084225</v>
       </c>
       <c r="Q22" t="n">
-        <v>71.62250269835239</v>
+        <v>71.62250269835241</v>
       </c>
       <c r="R22" t="n">
         <v>38.45889679145053</v>
@@ -32703,13 +32703,13 @@
         <v>1.906818934363269</v>
       </c>
       <c r="H23" t="n">
-        <v>19.52820941154783</v>
+        <v>19.52820941154784</v>
       </c>
       <c r="I23" t="n">
         <v>73.51263696704001</v>
       </c>
       <c r="J23" t="n">
-        <v>161.8388735304146</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K23" t="n">
         <v>242.5545190220119</v>
@@ -32718,19 +32718,19 @@
         <v>300.9103289845319</v>
       </c>
       <c r="M23" t="n">
-        <v>334.8207202085146</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N23" t="n">
         <v>340.2384695057743</v>
       </c>
       <c r="O23" t="n">
-        <v>321.2775387271995</v>
+        <v>321.2775387271996</v>
       </c>
       <c r="P23" t="n">
-        <v>274.2029462851062</v>
+        <v>274.2029462851063</v>
       </c>
       <c r="Q23" t="n">
-        <v>205.9149931982216</v>
+        <v>205.9149931982217</v>
       </c>
       <c r="R23" t="n">
         <v>119.7792148856968</v>
@@ -32779,13 +32779,13 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.020238074173706</v>
+        <v>1.020238074173707</v>
       </c>
       <c r="H24" t="n">
         <v>9.853351926888168</v>
       </c>
       <c r="I24" t="n">
-        <v>7.698620038549421</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J24" t="n">
         <v>96.39012436743779</v>
@@ -32809,10 +32809,10 @@
         <v>194.820724883223</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.2324952225945</v>
+        <v>102.8044973564788</v>
       </c>
       <c r="R24" t="n">
-        <v>63.3442551666798</v>
+        <v>63.34425516667981</v>
       </c>
       <c r="S24" t="n">
         <v>18.95047475493704</v>
@@ -32821,7 +32821,7 @@
         <v>4.112275395463316</v>
       </c>
       <c r="U24" t="n">
-        <v>0.06712092593248072</v>
+        <v>0.06712092593248073</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,19 +32858,19 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.8553333293690981</v>
+        <v>0.8553333293690982</v>
       </c>
       <c r="H25" t="n">
-        <v>7.60469087384526</v>
+        <v>7.604690873845261</v>
       </c>
       <c r="I25" t="n">
-        <v>25.7222059413907</v>
+        <v>25.72220594139071</v>
       </c>
       <c r="J25" t="n">
-        <v>60.47206638639523</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K25" t="n">
-        <v>99.37418135760974</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L25" t="n">
         <v>127.1647388045658</v>
@@ -32888,7 +32888,7 @@
         <v>103.4486783084225</v>
       </c>
       <c r="Q25" t="n">
-        <v>71.62250269835239</v>
+        <v>71.62250269835241</v>
       </c>
       <c r="R25" t="n">
         <v>38.45889679145053</v>
@@ -32940,13 +32940,13 @@
         <v>1.906818934363269</v>
       </c>
       <c r="H26" t="n">
-        <v>19.52820941154783</v>
+        <v>19.52820941154784</v>
       </c>
       <c r="I26" t="n">
         <v>73.51263696704001</v>
       </c>
       <c r="J26" t="n">
-        <v>161.8388735304146</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K26" t="n">
         <v>242.5545190220119</v>
@@ -32955,19 +32955,19 @@
         <v>300.9103289845319</v>
       </c>
       <c r="M26" t="n">
-        <v>334.8207202085146</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N26" t="n">
         <v>340.2384695057743</v>
       </c>
       <c r="O26" t="n">
-        <v>321.2775387271995</v>
+        <v>321.2775387271996</v>
       </c>
       <c r="P26" t="n">
-        <v>274.2029462851062</v>
+        <v>274.2029462851063</v>
       </c>
       <c r="Q26" t="n">
-        <v>205.9149931982216</v>
+        <v>205.9149931982217</v>
       </c>
       <c r="R26" t="n">
         <v>119.7792148856968</v>
@@ -33016,13 +33016,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>1.020238074173706</v>
+        <v>1.020238074173707</v>
       </c>
       <c r="H27" t="n">
         <v>9.853351926888168</v>
       </c>
       <c r="I27" t="n">
-        <v>35.1266179046649</v>
+        <v>7.698620038549286</v>
       </c>
       <c r="J27" t="n">
         <v>96.39012436743779</v>
@@ -33040,16 +33040,16 @@
         <v>265.3469191246782</v>
       </c>
       <c r="O27" t="n">
-        <v>215.3125934045033</v>
+        <v>242.7405912706187</v>
       </c>
       <c r="P27" t="n">
         <v>194.820724883223</v>
       </c>
       <c r="Q27" t="n">
-        <v>130.2324952225945</v>
+        <v>130.2324952225946</v>
       </c>
       <c r="R27" t="n">
-        <v>63.3442551666798</v>
+        <v>63.34425516667981</v>
       </c>
       <c r="S27" t="n">
         <v>18.95047475493704</v>
@@ -33058,7 +33058,7 @@
         <v>4.112275395463316</v>
       </c>
       <c r="U27" t="n">
-        <v>0.06712092593248072</v>
+        <v>0.06712092593248073</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,19 +33095,19 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.8553333293690981</v>
+        <v>0.8553333293690982</v>
       </c>
       <c r="H28" t="n">
-        <v>7.60469087384526</v>
+        <v>7.604690873845261</v>
       </c>
       <c r="I28" t="n">
-        <v>25.7222059413907</v>
+        <v>25.72220594139071</v>
       </c>
       <c r="J28" t="n">
-        <v>60.47206638639523</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K28" t="n">
-        <v>99.37418135760974</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L28" t="n">
         <v>127.1647388045658</v>
@@ -33125,7 +33125,7 @@
         <v>103.4486783084225</v>
       </c>
       <c r="Q28" t="n">
-        <v>71.62250269835239</v>
+        <v>71.62250269835241</v>
       </c>
       <c r="R28" t="n">
         <v>38.45889679145053</v>
@@ -33177,13 +33177,13 @@
         <v>1.906818934363269</v>
       </c>
       <c r="H29" t="n">
-        <v>19.52820941154783</v>
+        <v>19.52820941154784</v>
       </c>
       <c r="I29" t="n">
         <v>73.51263696704001</v>
       </c>
       <c r="J29" t="n">
-        <v>161.8388735304146</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K29" t="n">
         <v>242.5545190220119</v>
@@ -33192,19 +33192,19 @@
         <v>300.9103289845319</v>
       </c>
       <c r="M29" t="n">
-        <v>334.8207202085146</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N29" t="n">
         <v>340.2384695057743</v>
       </c>
       <c r="O29" t="n">
-        <v>321.2775387271995</v>
+        <v>321.2775387271996</v>
       </c>
       <c r="P29" t="n">
-        <v>274.2029462851062</v>
+        <v>274.2029462851063</v>
       </c>
       <c r="Q29" t="n">
-        <v>205.9149931982216</v>
+        <v>205.9149931982217</v>
       </c>
       <c r="R29" t="n">
         <v>119.7792148856968</v>
@@ -33253,7 +33253,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.020238074173706</v>
+        <v>1.020238074173707</v>
       </c>
       <c r="H30" t="n">
         <v>9.853351926888168</v>
@@ -33277,16 +33277,16 @@
         <v>265.3469191246782</v>
       </c>
       <c r="O30" t="n">
-        <v>242.7405912706187</v>
+        <v>215.3125934045031</v>
       </c>
       <c r="P30" t="n">
         <v>194.820724883223</v>
       </c>
       <c r="Q30" t="n">
-        <v>130.2324952225945</v>
+        <v>130.2324952225946</v>
       </c>
       <c r="R30" t="n">
-        <v>35.91625730056444</v>
+        <v>63.34425516667981</v>
       </c>
       <c r="S30" t="n">
         <v>18.95047475493704</v>
@@ -33295,7 +33295,7 @@
         <v>4.112275395463316</v>
       </c>
       <c r="U30" t="n">
-        <v>0.06712092593248072</v>
+        <v>0.06712092593248073</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,19 +33332,19 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.8553333293690981</v>
+        <v>0.8553333293690982</v>
       </c>
       <c r="H31" t="n">
-        <v>7.60469087384526</v>
+        <v>7.604690873845261</v>
       </c>
       <c r="I31" t="n">
-        <v>25.7222059413907</v>
+        <v>25.72220594139071</v>
       </c>
       <c r="J31" t="n">
-        <v>60.47206638639523</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K31" t="n">
-        <v>99.37418135760974</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L31" t="n">
         <v>127.1647388045658</v>
@@ -33362,7 +33362,7 @@
         <v>103.4486783084225</v>
       </c>
       <c r="Q31" t="n">
-        <v>71.62250269835239</v>
+        <v>71.62250269835241</v>
       </c>
       <c r="R31" t="n">
         <v>38.45889679145053</v>
@@ -33414,13 +33414,13 @@
         <v>1.906818934363269</v>
       </c>
       <c r="H32" t="n">
-        <v>19.52820941154783</v>
+        <v>19.52820941154784</v>
       </c>
       <c r="I32" t="n">
         <v>73.51263696704001</v>
       </c>
       <c r="J32" t="n">
-        <v>161.8388735304146</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K32" t="n">
         <v>242.5545190220119</v>
@@ -33429,19 +33429,19 @@
         <v>300.9103289845319</v>
       </c>
       <c r="M32" t="n">
-        <v>334.8207202085146</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N32" t="n">
         <v>340.2384695057743</v>
       </c>
       <c r="O32" t="n">
-        <v>321.2775387271995</v>
+        <v>321.2775387271996</v>
       </c>
       <c r="P32" t="n">
-        <v>274.2029462851062</v>
+        <v>274.2029462851063</v>
       </c>
       <c r="Q32" t="n">
-        <v>205.9149931982216</v>
+        <v>205.9149931982217</v>
       </c>
       <c r="R32" t="n">
         <v>119.7792148856968</v>
@@ -33490,7 +33490,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.020238074173706</v>
+        <v>1.020238074173707</v>
       </c>
       <c r="H33" t="n">
         <v>9.853351926888168</v>
@@ -33499,7 +33499,7 @@
         <v>35.1266179046649</v>
       </c>
       <c r="J33" t="n">
-        <v>96.39012436743779</v>
+        <v>68.96212650132217</v>
       </c>
       <c r="K33" t="n">
         <v>164.7460753370761</v>
@@ -33508,7 +33508,7 @@
         <v>221.5214292191638</v>
       </c>
       <c r="M33" t="n">
-        <v>231.0770615418451</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N33" t="n">
         <v>265.3469191246782</v>
@@ -33520,10 +33520,10 @@
         <v>194.820724883223</v>
       </c>
       <c r="Q33" t="n">
-        <v>130.2324952225945</v>
+        <v>130.2324952225946</v>
       </c>
       <c r="R33" t="n">
-        <v>63.3442551666798</v>
+        <v>63.34425516667981</v>
       </c>
       <c r="S33" t="n">
         <v>18.95047475493704</v>
@@ -33532,7 +33532,7 @@
         <v>4.112275395463316</v>
       </c>
       <c r="U33" t="n">
-        <v>0.06712092593248072</v>
+        <v>0.06712092593248073</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,19 +33569,19 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8553333293690981</v>
+        <v>0.8553333293690982</v>
       </c>
       <c r="H34" t="n">
-        <v>7.60469087384526</v>
+        <v>7.604690873845261</v>
       </c>
       <c r="I34" t="n">
-        <v>25.7222059413907</v>
+        <v>25.72220594139071</v>
       </c>
       <c r="J34" t="n">
-        <v>60.47206638639523</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K34" t="n">
-        <v>99.37418135760974</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L34" t="n">
         <v>127.1647388045658</v>
@@ -33599,7 +33599,7 @@
         <v>103.4486783084225</v>
       </c>
       <c r="Q34" t="n">
-        <v>71.62250269835239</v>
+        <v>71.62250269835241</v>
       </c>
       <c r="R34" t="n">
         <v>38.45889679145053</v>
@@ -33651,13 +33651,13 @@
         <v>1.906818934363269</v>
       </c>
       <c r="H35" t="n">
-        <v>19.52820941154783</v>
+        <v>19.52820941154784</v>
       </c>
       <c r="I35" t="n">
         <v>73.51263696704001</v>
       </c>
       <c r="J35" t="n">
-        <v>161.8388735304146</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K35" t="n">
         <v>242.5545190220119</v>
@@ -33666,19 +33666,19 @@
         <v>300.9103289845319</v>
       </c>
       <c r="M35" t="n">
-        <v>334.8207202085146</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N35" t="n">
         <v>340.2384695057743</v>
       </c>
       <c r="O35" t="n">
-        <v>321.2775387271995</v>
+        <v>321.2775387271996</v>
       </c>
       <c r="P35" t="n">
-        <v>274.2029462851062</v>
+        <v>274.2029462851063</v>
       </c>
       <c r="Q35" t="n">
-        <v>205.9149931982216</v>
+        <v>205.9149931982217</v>
       </c>
       <c r="R35" t="n">
         <v>119.7792148856968</v>
@@ -33727,13 +33727,13 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>1.020238074173706</v>
+        <v>1.020238074173707</v>
       </c>
       <c r="H36" t="n">
         <v>9.853351926888168</v>
       </c>
       <c r="I36" t="n">
-        <v>7.698620038549571</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J36" t="n">
         <v>96.39012436743779</v>
@@ -33754,13 +33754,13 @@
         <v>242.7405912706187</v>
       </c>
       <c r="P36" t="n">
-        <v>194.820724883223</v>
+        <v>167.3927270171071</v>
       </c>
       <c r="Q36" t="n">
-        <v>130.2324952225945</v>
+        <v>130.2324952225946</v>
       </c>
       <c r="R36" t="n">
-        <v>63.3442551666798</v>
+        <v>63.34425516667981</v>
       </c>
       <c r="S36" t="n">
         <v>18.95047475493704</v>
@@ -33769,7 +33769,7 @@
         <v>4.112275395463316</v>
       </c>
       <c r="U36" t="n">
-        <v>0.06712092593248072</v>
+        <v>0.06712092593248073</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,19 +33806,19 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8553333293690981</v>
+        <v>0.8553333293690982</v>
       </c>
       <c r="H37" t="n">
-        <v>7.60469087384526</v>
+        <v>7.604690873845261</v>
       </c>
       <c r="I37" t="n">
-        <v>25.7222059413907</v>
+        <v>25.72220594139071</v>
       </c>
       <c r="J37" t="n">
-        <v>60.47206638639523</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K37" t="n">
-        <v>99.37418135760974</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L37" t="n">
         <v>127.1647388045658</v>
@@ -33836,7 +33836,7 @@
         <v>103.4486783084225</v>
       </c>
       <c r="Q37" t="n">
-        <v>71.62250269835239</v>
+        <v>71.62250269835241</v>
       </c>
       <c r="R37" t="n">
         <v>38.45889679145053</v>
@@ -33888,13 +33888,13 @@
         <v>1.906818934363269</v>
       </c>
       <c r="H38" t="n">
-        <v>19.52820941154783</v>
+        <v>19.52820941154784</v>
       </c>
       <c r="I38" t="n">
         <v>73.51263696704001</v>
       </c>
       <c r="J38" t="n">
-        <v>161.8388735304146</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K38" t="n">
         <v>242.5545190220119</v>
@@ -33903,19 +33903,19 @@
         <v>300.9103289845319</v>
       </c>
       <c r="M38" t="n">
-        <v>334.8207202085146</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N38" t="n">
         <v>340.2384695057743</v>
       </c>
       <c r="O38" t="n">
-        <v>321.2775387271995</v>
+        <v>321.2775387271996</v>
       </c>
       <c r="P38" t="n">
-        <v>274.2029462851062</v>
+        <v>274.2029462851063</v>
       </c>
       <c r="Q38" t="n">
-        <v>205.9149931982216</v>
+        <v>205.9149931982217</v>
       </c>
       <c r="R38" t="n">
         <v>119.7792148856968</v>
@@ -33964,13 +33964,13 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>1.020238074173706</v>
+        <v>1.020238074173707</v>
       </c>
       <c r="H39" t="n">
         <v>9.853351926888168</v>
       </c>
       <c r="I39" t="n">
-        <v>7.698620038549571</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J39" t="n">
         <v>96.39012436743779</v>
@@ -33994,10 +33994,10 @@
         <v>194.820724883223</v>
       </c>
       <c r="Q39" t="n">
-        <v>130.2324952225945</v>
+        <v>130.2324952225946</v>
       </c>
       <c r="R39" t="n">
-        <v>63.3442551666798</v>
+        <v>35.91625730056398</v>
       </c>
       <c r="S39" t="n">
         <v>18.95047475493704</v>
@@ -34006,7 +34006,7 @@
         <v>4.112275395463316</v>
       </c>
       <c r="U39" t="n">
-        <v>0.06712092593248072</v>
+        <v>0.06712092593248073</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,19 +34043,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8553333293690981</v>
+        <v>0.8553333293690982</v>
       </c>
       <c r="H40" t="n">
-        <v>7.60469087384526</v>
+        <v>7.604690873845261</v>
       </c>
       <c r="I40" t="n">
-        <v>25.7222059413907</v>
+        <v>25.72220594139071</v>
       </c>
       <c r="J40" t="n">
-        <v>60.47206638639523</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K40" t="n">
-        <v>99.37418135760974</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L40" t="n">
         <v>127.1647388045658</v>
@@ -34073,7 +34073,7 @@
         <v>103.4486783084225</v>
       </c>
       <c r="Q40" t="n">
-        <v>71.62250269835239</v>
+        <v>71.62250269835241</v>
       </c>
       <c r="R40" t="n">
         <v>38.45889679145053</v>
@@ -34125,13 +34125,13 @@
         <v>1.906818934363269</v>
       </c>
       <c r="H41" t="n">
-        <v>19.52820941154783</v>
+        <v>19.52820941154784</v>
       </c>
       <c r="I41" t="n">
         <v>73.51263696704001</v>
       </c>
       <c r="J41" t="n">
-        <v>161.8388735304146</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K41" t="n">
         <v>242.5545190220119</v>
@@ -34140,19 +34140,19 @@
         <v>300.9103289845319</v>
       </c>
       <c r="M41" t="n">
-        <v>334.8207202085146</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N41" t="n">
         <v>340.2384695057743</v>
       </c>
       <c r="O41" t="n">
-        <v>321.2775387271995</v>
+        <v>321.2775387271996</v>
       </c>
       <c r="P41" t="n">
-        <v>274.2029462851062</v>
+        <v>274.2029462851063</v>
       </c>
       <c r="Q41" t="n">
-        <v>205.9149931982216</v>
+        <v>205.9149931982217</v>
       </c>
       <c r="R41" t="n">
         <v>119.7792148856968</v>
@@ -34201,7 +34201,7 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>1.020238074173706</v>
+        <v>1.020238074173707</v>
       </c>
       <c r="H42" t="n">
         <v>9.853351926888168</v>
@@ -34210,7 +34210,7 @@
         <v>35.1266179046649</v>
       </c>
       <c r="J42" t="n">
-        <v>96.39012436743779</v>
+        <v>68.96212650132209</v>
       </c>
       <c r="K42" t="n">
         <v>164.7460753370761</v>
@@ -34228,13 +34228,13 @@
         <v>242.7405912706187</v>
       </c>
       <c r="P42" t="n">
-        <v>167.3927270171073</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q42" t="n">
-        <v>130.2324952225945</v>
+        <v>130.2324952225946</v>
       </c>
       <c r="R42" t="n">
-        <v>63.3442551666798</v>
+        <v>63.34425516667981</v>
       </c>
       <c r="S42" t="n">
         <v>18.95047475493704</v>
@@ -34243,7 +34243,7 @@
         <v>4.112275395463316</v>
       </c>
       <c r="U42" t="n">
-        <v>0.06712092593248072</v>
+        <v>0.06712092593248073</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8553333293690981</v>
+        <v>0.8553333293690982</v>
       </c>
       <c r="H43" t="n">
-        <v>7.60469087384526</v>
+        <v>7.604690873845261</v>
       </c>
       <c r="I43" t="n">
-        <v>25.7222059413907</v>
+        <v>25.72220594139071</v>
       </c>
       <c r="J43" t="n">
-        <v>60.47206638639523</v>
+        <v>60.47206638639524</v>
       </c>
       <c r="K43" t="n">
-        <v>99.37418135760974</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L43" t="n">
         <v>127.1647388045658</v>
@@ -34310,7 +34310,7 @@
         <v>103.4486783084225</v>
       </c>
       <c r="Q43" t="n">
-        <v>71.62250269835239</v>
+        <v>71.62250269835241</v>
       </c>
       <c r="R43" t="n">
         <v>38.45889679145053</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.906818934363269</v>
+        <v>1.90681893436327</v>
       </c>
       <c r="H44" t="n">
         <v>19.52820941154784</v>
       </c>
       <c r="I44" t="n">
-        <v>73.51263696704001</v>
+        <v>73.51263696704002</v>
       </c>
       <c r="J44" t="n">
         <v>161.8388735304147</v>
@@ -34380,7 +34380,7 @@
         <v>334.8207202085147</v>
       </c>
       <c r="N44" t="n">
-        <v>340.2384695057743</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O44" t="n">
         <v>321.2775387271996</v>
@@ -34395,10 +34395,10 @@
         <v>119.7792148856968</v>
       </c>
       <c r="S44" t="n">
-        <v>43.45163646680304</v>
+        <v>43.45163646680305</v>
       </c>
       <c r="T44" t="n">
-        <v>8.347099885175215</v>
+        <v>8.347099885175217</v>
       </c>
       <c r="U44" t="n">
         <v>0.1525455147490615</v>
@@ -34441,13 +34441,13 @@
         <v>1.020238074173707</v>
       </c>
       <c r="H45" t="n">
-        <v>9.853351926888168</v>
+        <v>9.85335192688817</v>
       </c>
       <c r="I45" t="n">
-        <v>35.1266179046649</v>
+        <v>35.12661790466491</v>
       </c>
       <c r="J45" t="n">
-        <v>68.96212650132208</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K45" t="n">
         <v>164.7460753370761</v>
@@ -34456,10 +34456,10 @@
         <v>221.5214292191638</v>
       </c>
       <c r="M45" t="n">
-        <v>258.5050594079606</v>
+        <v>258.5050594079607</v>
       </c>
       <c r="N45" t="n">
-        <v>265.3469191246782</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O45" t="n">
         <v>242.7405912706187</v>
@@ -34471,13 +34471,13 @@
         <v>130.2324952225946</v>
       </c>
       <c r="R45" t="n">
-        <v>63.34425516667981</v>
+        <v>35.91625730056398</v>
       </c>
       <c r="S45" t="n">
         <v>18.95047475493704</v>
       </c>
       <c r="T45" t="n">
-        <v>4.112275395463316</v>
+        <v>4.112275395463317</v>
       </c>
       <c r="U45" t="n">
         <v>0.06712092593248073</v>
@@ -34517,16 +34517,16 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.8553333293690982</v>
+        <v>0.8553333293690983</v>
       </c>
       <c r="H46" t="n">
-        <v>7.604690873845261</v>
+        <v>7.604690873845262</v>
       </c>
       <c r="I46" t="n">
         <v>25.72220594139071</v>
       </c>
       <c r="J46" t="n">
-        <v>60.47206638639524</v>
+        <v>60.47206638639525</v>
       </c>
       <c r="K46" t="n">
         <v>99.37418135760976</v>
@@ -34556,10 +34556,10 @@
         <v>14.90612720364146</v>
       </c>
       <c r="T46" t="n">
-        <v>3.654606043667964</v>
+        <v>3.654606043667965</v>
       </c>
       <c r="U46" t="n">
-        <v>0.0466545452383145</v>
+        <v>0.04665454523831451</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35406,7 +35406,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>73.10001548790861</v>
+        <v>73.10001548790859</v>
       </c>
       <c r="J11" t="n">
         <v>161.8388735304147</v>
@@ -35418,22 +35418,22 @@
         <v>300.9103289845318</v>
       </c>
       <c r="M11" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N11" t="n">
-        <v>340.2384695057742</v>
+        <v>340.238469505774</v>
       </c>
       <c r="O11" t="n">
         <v>321.2775387271995</v>
       </c>
       <c r="P11" t="n">
-        <v>274.2029462851062</v>
+        <v>274.2029462851065</v>
       </c>
       <c r="Q11" t="n">
         <v>205.9149931982215</v>
       </c>
       <c r="R11" t="n">
-        <v>119.779214885697</v>
+        <v>119.7792148856965</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,22 +35488,22 @@
         <v>35.1266179046649</v>
       </c>
       <c r="J12" t="n">
-        <v>96.39012436743781</v>
+        <v>68.9621265013225</v>
       </c>
       <c r="K12" t="n">
-        <v>137.3180774709604</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L12" t="n">
         <v>221.5214292191638</v>
       </c>
       <c r="M12" t="n">
-        <v>258.5050594079606</v>
+        <v>258.5050594079605</v>
       </c>
       <c r="N12" t="n">
         <v>265.3469191246782</v>
       </c>
       <c r="O12" t="n">
-        <v>242.7405912706188</v>
+        <v>242.7405912706186</v>
       </c>
       <c r="P12" t="n">
         <v>194.820724883223</v>
@@ -35567,31 +35567,31 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>147.9262938254759</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K13" t="n">
-        <v>99.37418135760976</v>
+        <v>99.37418135760973</v>
       </c>
       <c r="L13" t="n">
-        <v>287.2782710080654</v>
+        <v>301.8412305123579</v>
       </c>
       <c r="M13" t="n">
         <v>598.2025056219346</v>
       </c>
       <c r="N13" t="n">
-        <v>577.615390461692</v>
+        <v>577.6153904616917</v>
       </c>
       <c r="O13" t="n">
-        <v>120.8974782275523</v>
+        <v>544.8058107788465</v>
       </c>
       <c r="P13" t="n">
-        <v>454.4657429249294</v>
+        <v>103.4486783084226</v>
       </c>
       <c r="Q13" t="n">
         <v>71.62250269835249</v>
       </c>
       <c r="R13" t="n">
-        <v>17.2552537097687</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -35643,10 +35643,10 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>73.10001548790861</v>
+        <v>73.10001548790859</v>
       </c>
       <c r="J14" t="n">
-        <v>161.8388735304152</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K14" t="n">
         <v>242.5545190220118</v>
@@ -35655,16 +35655,16 @@
         <v>300.9103289845318</v>
       </c>
       <c r="M14" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N14" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O14" t="n">
-        <v>321.2775387271993</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P14" t="n">
-        <v>274.2029462851062</v>
+        <v>274.202946285106</v>
       </c>
       <c r="Q14" t="n">
         <v>205.9149931982215</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>35.1266179046649</v>
+        <v>35.12661790466489</v>
       </c>
       <c r="J15" t="n">
-        <v>96.39012436743781</v>
+        <v>96.39012436743778</v>
       </c>
       <c r="K15" t="n">
-        <v>137.3180774709604</v>
+        <v>164.7460753370761</v>
       </c>
       <c r="L15" t="n">
-        <v>221.5214292191638</v>
+        <v>221.5214292191637</v>
       </c>
       <c r="M15" t="n">
-        <v>258.5050594079606</v>
+        <v>258.5050594079605</v>
       </c>
       <c r="N15" t="n">
         <v>265.3469191246782</v>
       </c>
       <c r="O15" t="n">
-        <v>242.7405912706188</v>
+        <v>242.7405912706186</v>
       </c>
       <c r="P15" t="n">
-        <v>194.820724883223</v>
+        <v>167.3927270171077</v>
       </c>
       <c r="Q15" t="n">
         <v>130.2324952225945</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>147.9262938254759</v>
+        <v>60.47206638639522</v>
       </c>
       <c r="K16" t="n">
-        <v>376.9079738537063</v>
+        <v>217.2670350313003</v>
       </c>
       <c r="L16" t="n">
-        <v>549.5989628126074</v>
+        <v>127.1647388045657</v>
       </c>
       <c r="M16" t="n">
-        <v>134.0773872573759</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N16" t="n">
-        <v>130.8893266660912</v>
+        <v>577.6153904616918</v>
       </c>
       <c r="O16" t="n">
-        <v>322.0024843049193</v>
+        <v>544.8058107788465</v>
       </c>
       <c r="P16" t="n">
         <v>454.4657429249294</v>
@@ -35828,7 +35828,7 @@
         <v>241.5141944805064</v>
       </c>
       <c r="R16" t="n">
-        <v>17.2552537097687</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -35880,10 +35880,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>73.10001548790861</v>
+        <v>73.10001548790859</v>
       </c>
       <c r="J17" t="n">
-        <v>161.8388735304152</v>
+        <v>161.8388735304146</v>
       </c>
       <c r="K17" t="n">
         <v>242.5545190220118</v>
@@ -35892,16 +35892,16 @@
         <v>300.9103289845318</v>
       </c>
       <c r="M17" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N17" t="n">
-        <v>340.2384695057744</v>
+        <v>340.2384695057742</v>
       </c>
       <c r="O17" t="n">
-        <v>321.2775387271993</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P17" t="n">
-        <v>274.2029462851062</v>
+        <v>274.202946285106</v>
       </c>
       <c r="Q17" t="n">
         <v>205.9149931982215</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>35.1266179046649</v>
+        <v>35.12661790466489</v>
       </c>
       <c r="J18" t="n">
-        <v>68.96212650132208</v>
+        <v>96.39012436743778</v>
       </c>
       <c r="K18" t="n">
-        <v>164.7460753370761</v>
+        <v>137.3180774709608</v>
       </c>
       <c r="L18" t="n">
         <v>221.5214292191638</v>
       </c>
       <c r="M18" t="n">
-        <v>258.5050594079606</v>
+        <v>258.5050594079605</v>
       </c>
       <c r="N18" t="n">
         <v>265.3469191246782</v>
       </c>
       <c r="O18" t="n">
-        <v>242.7405912706188</v>
+        <v>242.7405912706186</v>
       </c>
       <c r="P18" t="n">
         <v>194.820724883223</v>
@@ -36041,31 +36041,31 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>60.47206638639523</v>
+        <v>60.47206638639522</v>
       </c>
       <c r="K19" t="n">
-        <v>376.9079738537063</v>
+        <v>99.37418135760973</v>
       </c>
       <c r="L19" t="n">
-        <v>127.1647388045657</v>
+        <v>549.5989628126073</v>
       </c>
       <c r="M19" t="n">
-        <v>134.077387257376</v>
+        <v>350.4447733216857</v>
       </c>
       <c r="N19" t="n">
-        <v>417.9744516392859</v>
+        <v>577.6153904616917</v>
       </c>
       <c r="O19" t="n">
-        <v>544.8058107788468</v>
+        <v>544.8058107788465</v>
       </c>
       <c r="P19" t="n">
-        <v>454.4657429249294</v>
+        <v>103.4486783084226</v>
       </c>
       <c r="Q19" t="n">
-        <v>241.5141944805064</v>
+        <v>71.62250269835249</v>
       </c>
       <c r="R19" t="n">
-        <v>17.2552537097687</v>
+        <v>17.25525370976869</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>73.10001548790861</v>
       </c>
       <c r="J20" t="n">
-        <v>161.8388735304146</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K20" t="n">
-        <v>242.5545190220118</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L20" t="n">
-        <v>300.9103289845318</v>
+        <v>300.910328984532</v>
       </c>
       <c r="M20" t="n">
-        <v>334.8207202085146</v>
+        <v>334.8207202085148</v>
       </c>
       <c r="N20" t="n">
-        <v>340.2384695057742</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O20" t="n">
-        <v>321.2775387271995</v>
+        <v>321.2775387271993</v>
       </c>
       <c r="P20" t="n">
-        <v>274.2029462851065</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q20" t="n">
         <v>205.9149931982215</v>
       </c>
       <c r="R20" t="n">
-        <v>119.7792148856965</v>
+        <v>119.779214885697</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,7 +36199,7 @@
         <v>35.1266179046649</v>
       </c>
       <c r="J21" t="n">
-        <v>68.96212650132244</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K21" t="n">
         <v>164.7460753370761</v>
@@ -36208,16 +36208,16 @@
         <v>221.5214292191638</v>
       </c>
       <c r="M21" t="n">
-        <v>258.5050594079605</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N21" t="n">
         <v>265.3469191246782</v>
       </c>
       <c r="O21" t="n">
-        <v>242.7405912706186</v>
+        <v>242.7405912706188</v>
       </c>
       <c r="P21" t="n">
-        <v>194.820724883223</v>
+        <v>167.3927270171073</v>
       </c>
       <c r="Q21" t="n">
         <v>130.2324952225945</v>
@@ -36278,31 +36278,31 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>60.47206638639523</v>
+        <v>60.47206638639525</v>
       </c>
       <c r="K22" t="n">
-        <v>376.9079738537063</v>
+        <v>99.37418135760976</v>
       </c>
       <c r="L22" t="n">
         <v>549.5989628126072</v>
       </c>
       <c r="M22" t="n">
-        <v>168.6199800046834</v>
+        <v>598.2025056219345</v>
       </c>
       <c r="N22" t="n">
-        <v>130.8893266660912</v>
+        <v>577.615390461692</v>
       </c>
       <c r="O22" t="n">
-        <v>544.8058107788465</v>
+        <v>297.0480784785975</v>
       </c>
       <c r="P22" t="n">
-        <v>454.4657429249294</v>
+        <v>103.4486783084226</v>
       </c>
       <c r="Q22" t="n">
         <v>71.62250269835249</v>
       </c>
       <c r="R22" t="n">
-        <v>17.25525370976869</v>
+        <v>17.2552537097687</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36357,10 +36357,10 @@
         <v>73.10001548790861</v>
       </c>
       <c r="J23" t="n">
-        <v>207.4535443625925</v>
+        <v>601.4900729778064</v>
       </c>
       <c r="K23" t="n">
-        <v>242.5545190220118</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L23" t="n">
         <v>300.9103289845318</v>
@@ -36369,19 +36369,19 @@
         <v>334.8207202085146</v>
       </c>
       <c r="N23" t="n">
-        <v>340.2384695057742</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O23" t="n">
         <v>321.2775387271995</v>
       </c>
       <c r="P23" t="n">
-        <v>274.2029462851062</v>
+        <v>274.2029462851065</v>
       </c>
       <c r="Q23" t="n">
-        <v>748.1890527285473</v>
+        <v>205.9149931982215</v>
       </c>
       <c r="R23" t="n">
-        <v>119.779214885697</v>
+        <v>268.0167458008077</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>7.698620038549421</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J24" t="n">
         <v>96.39012436743779</v>
@@ -36445,7 +36445,7 @@
         <v>221.5214292191638</v>
       </c>
       <c r="M24" t="n">
-        <v>258.5050594079605</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N24" t="n">
         <v>265.3469191246782</v>
@@ -36457,7 +36457,7 @@
         <v>194.820724883223</v>
       </c>
       <c r="Q24" t="n">
-        <v>130.2324952225945</v>
+        <v>102.8044973564788</v>
       </c>
       <c r="R24" t="n">
         <v>63.34425516667989</v>
@@ -36521,25 +36521,25 @@
         <v>376.9079738537064</v>
       </c>
       <c r="L25" t="n">
-        <v>127.1647388045658</v>
+        <v>549.5989628126072</v>
       </c>
       <c r="M25" t="n">
         <v>598.2025056219345</v>
       </c>
       <c r="N25" t="n">
-        <v>454.2838361981494</v>
+        <v>455.7579447414023</v>
       </c>
       <c r="O25" t="n">
-        <v>544.8058107788465</v>
+        <v>120.8974782275523</v>
       </c>
       <c r="P25" t="n">
-        <v>454.4657429249296</v>
+        <v>454.4657429249291</v>
       </c>
       <c r="Q25" t="n">
         <v>241.5141944805064</v>
       </c>
       <c r="R25" t="n">
-        <v>17.25525370976869</v>
+        <v>17.2552537097687</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36594,22 +36594,22 @@
         <v>73.10001548790861</v>
       </c>
       <c r="J26" t="n">
-        <v>161.8388735304146</v>
+        <v>601.4900729778064</v>
       </c>
       <c r="K26" t="n">
-        <v>242.5545190220118</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L26" t="n">
         <v>300.9103289845318</v>
       </c>
       <c r="M26" t="n">
-        <v>748.189052728547</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N26" t="n">
-        <v>340.2384695057742</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O26" t="n">
-        <v>495.7979365696699</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P26" t="n">
         <v>274.2029462851065</v>
@@ -36618,7 +36618,7 @@
         <v>205.9149931982215</v>
       </c>
       <c r="R26" t="n">
-        <v>119.779214885697</v>
+        <v>268.0167458008077</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,10 +36670,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>35.12661790466489</v>
+        <v>7.698620038549286</v>
       </c>
       <c r="J27" t="n">
-        <v>96.39012436743781</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K27" t="n">
         <v>164.7460753370761</v>
@@ -36682,13 +36682,13 @@
         <v>221.5214292191638</v>
       </c>
       <c r="M27" t="n">
-        <v>258.5050594079605</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N27" t="n">
         <v>265.3469191246782</v>
       </c>
       <c r="O27" t="n">
-        <v>215.3125934045033</v>
+        <v>242.7405912706188</v>
       </c>
       <c r="P27" t="n">
         <v>194.820724883223</v>
@@ -36752,31 +36752,31 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>147.9262938254759</v>
+        <v>60.47206638639525</v>
       </c>
       <c r="K28" t="n">
         <v>376.9079738537064</v>
       </c>
       <c r="L28" t="n">
-        <v>127.1647388045658</v>
+        <v>261.1791037622572</v>
       </c>
       <c r="M28" t="n">
-        <v>474.8709513583922</v>
+        <v>598.2025056219346</v>
       </c>
       <c r="N28" t="n">
-        <v>577.6153904616917</v>
+        <v>577.615390461692</v>
       </c>
       <c r="O28" t="n">
         <v>544.8058107788465</v>
       </c>
       <c r="P28" t="n">
-        <v>454.4657429249291</v>
+        <v>454.4657429249296</v>
       </c>
       <c r="Q28" t="n">
-        <v>241.5141944805064</v>
+        <v>71.62250269835249</v>
       </c>
       <c r="R28" t="n">
-        <v>17.25525370976869</v>
+        <v>17.2552537097687</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36831,7 +36831,7 @@
         <v>73.10001548790861</v>
       </c>
       <c r="J29" t="n">
-        <v>161.8388735304146</v>
+        <v>578.8649122231628</v>
       </c>
       <c r="K29" t="n">
         <v>242.5545190220118</v>
@@ -36843,19 +36843,19 @@
         <v>334.8207202085146</v>
       </c>
       <c r="N29" t="n">
-        <v>340.2384695057742</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O29" t="n">
-        <v>435.1801626462623</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P29" t="n">
-        <v>748.189052728547</v>
+        <v>274.2029462851065</v>
       </c>
       <c r="Q29" t="n">
         <v>205.9149931982215</v>
       </c>
       <c r="R29" t="n">
-        <v>119.779214885697</v>
+        <v>290.6419065554514</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36919,13 +36919,13 @@
         <v>221.5214292191638</v>
       </c>
       <c r="M30" t="n">
-        <v>258.5050594079605</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N30" t="n">
         <v>265.3469191246782</v>
       </c>
       <c r="O30" t="n">
-        <v>242.7405912706188</v>
+        <v>215.3125934045031</v>
       </c>
       <c r="P30" t="n">
         <v>194.820724883223</v>
@@ -36934,7 +36934,7 @@
         <v>130.2324952225945</v>
       </c>
       <c r="R30" t="n">
-        <v>35.91625730056444</v>
+        <v>63.34425516667989</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36992,28 +36992,28 @@
         <v>147.9262938254759</v>
       </c>
       <c r="K31" t="n">
-        <v>99.37418135760976</v>
+        <v>376.9079738537064</v>
       </c>
       <c r="L31" t="n">
         <v>549.5989628126072</v>
       </c>
       <c r="M31" t="n">
-        <v>598.2025056219347</v>
+        <v>598.2025056219345</v>
       </c>
       <c r="N31" t="n">
-        <v>309.3834046862044</v>
+        <v>130.8893266660909</v>
       </c>
       <c r="O31" t="n">
-        <v>544.8058107788465</v>
+        <v>445.7660963028636</v>
       </c>
       <c r="P31" t="n">
-        <v>454.4657429249296</v>
+        <v>454.4657429249291</v>
       </c>
       <c r="Q31" t="n">
         <v>241.5141944805064</v>
       </c>
       <c r="R31" t="n">
-        <v>17.25525370976869</v>
+        <v>17.2552537097687</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>73.10001548790861</v>
       </c>
       <c r="J32" t="n">
-        <v>578.8649122231635</v>
+        <v>578.8649122231628</v>
       </c>
       <c r="K32" t="n">
         <v>242.5545190220118</v>
@@ -37080,7 +37080,7 @@
         <v>334.8207202085146</v>
       </c>
       <c r="N32" t="n">
-        <v>340.2384695057742</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O32" t="n">
         <v>321.2775387271995</v>
@@ -37147,7 +37147,7 @@
         <v>35.1266179046649</v>
       </c>
       <c r="J33" t="n">
-        <v>96.39012436743779</v>
+        <v>68.96212650132217</v>
       </c>
       <c r="K33" t="n">
         <v>164.7460753370761</v>
@@ -37156,7 +37156,7 @@
         <v>221.5214292191638</v>
       </c>
       <c r="M33" t="n">
-        <v>231.0770615418451</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N33" t="n">
         <v>265.3469191246782</v>
@@ -37229,28 +37229,28 @@
         <v>147.9262938254759</v>
       </c>
       <c r="K34" t="n">
-        <v>99.37418135760976</v>
+        <v>376.9079738537064</v>
       </c>
       <c r="L34" t="n">
-        <v>451.2586688192743</v>
+        <v>549.5989628126072</v>
       </c>
       <c r="M34" t="n">
-        <v>598.2025056219346</v>
+        <v>222.328419132504</v>
       </c>
       <c r="N34" t="n">
-        <v>577.6153904616917</v>
+        <v>577.615390461692</v>
       </c>
       <c r="O34" t="n">
         <v>544.8058107788465</v>
       </c>
       <c r="P34" t="n">
-        <v>454.4657429249291</v>
+        <v>454.4657429249296</v>
       </c>
       <c r="Q34" t="n">
         <v>71.62250269835249</v>
       </c>
       <c r="R34" t="n">
-        <v>17.25525370976869</v>
+        <v>17.2552537097687</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37308,13 +37308,13 @@
         <v>161.8388735304147</v>
       </c>
       <c r="K35" t="n">
-        <v>242.5545190220118</v>
+        <v>242.5545190220119</v>
       </c>
       <c r="L35" t="n">
         <v>300.9103289845319</v>
       </c>
       <c r="M35" t="n">
-        <v>334.8207202085146</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N35" t="n">
         <v>340.2384695057742</v>
@@ -37323,7 +37323,7 @@
         <v>321.2775387271995</v>
       </c>
       <c r="P35" t="n">
-        <v>274.202946285106</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q35" t="n">
         <v>205.9149931982215</v>
@@ -37381,10 +37381,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>7.698620038549571</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J36" t="n">
-        <v>96.39012436743779</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K36" t="n">
         <v>164.7460753370761</v>
@@ -37393,16 +37393,16 @@
         <v>221.5214292191638</v>
       </c>
       <c r="M36" t="n">
-        <v>258.5050594079605</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N36" t="n">
-        <v>265.3469191246782</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O36" t="n">
-        <v>242.7405912706186</v>
+        <v>242.7405912706188</v>
       </c>
       <c r="P36" t="n">
-        <v>194.820724883223</v>
+        <v>167.3927270171071</v>
       </c>
       <c r="Q36" t="n">
         <v>130.2324952225945</v>
@@ -37463,31 +37463,31 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>147.9262938254759</v>
+        <v>60.47206638639523</v>
       </c>
       <c r="K37" t="n">
-        <v>99.37418135760973</v>
+        <v>241.5588748188595</v>
       </c>
       <c r="L37" t="n">
         <v>549.5989628126073</v>
       </c>
       <c r="M37" t="n">
-        <v>598.2025056219346</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N37" t="n">
         <v>130.8893266660912</v>
       </c>
       <c r="O37" t="n">
-        <v>544.8058107788463</v>
+        <v>544.8058107788468</v>
       </c>
       <c r="P37" t="n">
-        <v>103.4486783084226</v>
+        <v>454.4657429249294</v>
       </c>
       <c r="Q37" t="n">
-        <v>183.1366067546237</v>
+        <v>241.5141944805064</v>
       </c>
       <c r="R37" t="n">
-        <v>17.25525370976869</v>
+        <v>17.2552537097687</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37545,19 +37545,19 @@
         <v>161.8388735304147</v>
       </c>
       <c r="K38" t="n">
-        <v>242.5545190220118</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L38" t="n">
         <v>300.9103289845319</v>
       </c>
       <c r="M38" t="n">
-        <v>334.8207202085146</v>
+        <v>334.8207202085147</v>
       </c>
       <c r="N38" t="n">
         <v>340.2384695057742</v>
       </c>
       <c r="O38" t="n">
-        <v>321.2775387271993</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P38" t="n">
         <v>274.2029462851062</v>
@@ -37618,10 +37618,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>7.698620038549571</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J39" t="n">
-        <v>96.39012436743779</v>
+        <v>96.39012436743781</v>
       </c>
       <c r="K39" t="n">
         <v>164.7460753370761</v>
@@ -37630,13 +37630,13 @@
         <v>221.5214292191638</v>
       </c>
       <c r="M39" t="n">
-        <v>258.5050594079605</v>
+        <v>258.5050594079606</v>
       </c>
       <c r="N39" t="n">
-        <v>265.3469191246782</v>
+        <v>265.3469191246783</v>
       </c>
       <c r="O39" t="n">
-        <v>242.7405912706186</v>
+        <v>242.7405912706188</v>
       </c>
       <c r="P39" t="n">
         <v>194.820724883223</v>
@@ -37645,7 +37645,7 @@
         <v>130.2324952225945</v>
       </c>
       <c r="R39" t="n">
-        <v>63.34425516667989</v>
+        <v>35.91625730056398</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,28 +37703,28 @@
         <v>60.47206638639523</v>
       </c>
       <c r="K40" t="n">
-        <v>376.9079738537063</v>
+        <v>241.5588748188595</v>
       </c>
       <c r="L40" t="n">
-        <v>549.5989628126072</v>
+        <v>549.5989628126073</v>
       </c>
       <c r="M40" t="n">
-        <v>496.8193133768834</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N40" t="n">
-        <v>577.6153904616917</v>
+        <v>130.8893266660912</v>
       </c>
       <c r="O40" t="n">
-        <v>120.8974782275523</v>
+        <v>544.8058107788468</v>
       </c>
       <c r="P40" t="n">
-        <v>103.4486783084226</v>
+        <v>454.4657429249294</v>
       </c>
       <c r="Q40" t="n">
-        <v>71.62250269835249</v>
+        <v>241.5141944805064</v>
       </c>
       <c r="R40" t="n">
-        <v>17.25525370976869</v>
+        <v>17.2552537097687</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -37782,22 +37782,22 @@
         <v>161.8388735304145</v>
       </c>
       <c r="K41" t="n">
-        <v>242.554519022012</v>
+        <v>242.5545190220118</v>
       </c>
       <c r="L41" t="n">
-        <v>300.9103289845319</v>
+        <v>300.9103289845318</v>
       </c>
       <c r="M41" t="n">
-        <v>334.8207202085146</v>
+        <v>334.8207202085148</v>
       </c>
       <c r="N41" t="n">
-        <v>340.2384695057742</v>
+        <v>340.2384695057744</v>
       </c>
       <c r="O41" t="n">
         <v>321.2775387271995</v>
       </c>
       <c r="P41" t="n">
-        <v>274.202946285106</v>
+        <v>274.2029462851062</v>
       </c>
       <c r="Q41" t="n">
         <v>205.9149931982215</v>
@@ -37855,10 +37855,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>35.12661790466489</v>
+        <v>35.1266179046649</v>
       </c>
       <c r="J42" t="n">
-        <v>96.39012436743778</v>
+        <v>68.96212650132209</v>
       </c>
       <c r="K42" t="n">
         <v>164.7460753370761</v>
@@ -37876,7 +37876,7 @@
         <v>242.7405912706188</v>
       </c>
       <c r="P42" t="n">
-        <v>167.3927270171073</v>
+        <v>194.820724883223</v>
       </c>
       <c r="Q42" t="n">
         <v>130.2324952225945</v>
@@ -37937,31 +37937,31 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>60.47206638639523</v>
+        <v>60.47206638639525</v>
       </c>
       <c r="K43" t="n">
-        <v>99.37418135760974</v>
+        <v>241.5588748188591</v>
       </c>
       <c r="L43" t="n">
         <v>549.5989628126073</v>
       </c>
       <c r="M43" t="n">
-        <v>598.2025056219345</v>
+        <v>134.077387257376</v>
       </c>
       <c r="N43" t="n">
-        <v>159.9659663792891</v>
+        <v>130.8893266660912</v>
       </c>
       <c r="O43" t="n">
-        <v>544.8058107788465</v>
+        <v>544.8058107788468</v>
       </c>
       <c r="P43" t="n">
-        <v>103.4486783084226</v>
+        <v>454.4657429249294</v>
       </c>
       <c r="Q43" t="n">
         <v>241.5141944805064</v>
       </c>
       <c r="R43" t="n">
-        <v>17.25525370976869</v>
+        <v>17.2552537097687</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38013,28 +38013,28 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>73.10001548790861</v>
+        <v>73.10001548790862</v>
       </c>
       <c r="J44" t="n">
-        <v>161.8388735304152</v>
+        <v>161.8388735304147</v>
       </c>
       <c r="K44" t="n">
-        <v>242.5545190220118</v>
+        <v>242.554519022012</v>
       </c>
       <c r="L44" t="n">
-        <v>300.9103289845318</v>
+        <v>300.9103289845319</v>
       </c>
       <c r="M44" t="n">
-        <v>334.8207202085148</v>
+        <v>334.8207202085146</v>
       </c>
       <c r="N44" t="n">
         <v>340.2384695057744</v>
       </c>
       <c r="O44" t="n">
-        <v>321.2775387271993</v>
+        <v>321.2775387271995</v>
       </c>
       <c r="P44" t="n">
-        <v>274.2029462851062</v>
+        <v>274.2029462851065</v>
       </c>
       <c r="Q44" t="n">
         <v>205.9149931982215</v>
@@ -38092,10 +38092,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>35.1266179046649</v>
+        <v>35.12661790466491</v>
       </c>
       <c r="J45" t="n">
-        <v>68.96212650132208</v>
+        <v>96.39012436743779</v>
       </c>
       <c r="K45" t="n">
         <v>164.7460753370761</v>
@@ -38104,7 +38104,7 @@
         <v>221.5214292191638</v>
       </c>
       <c r="M45" t="n">
-        <v>258.5050594079606</v>
+        <v>258.5050594079607</v>
       </c>
       <c r="N45" t="n">
         <v>265.3469191246782</v>
@@ -38119,7 +38119,7 @@
         <v>130.2324952225945</v>
       </c>
       <c r="R45" t="n">
-        <v>63.34425516667989</v>
+        <v>35.91625730056398</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>60.47206638639523</v>
+        <v>60.47206638639526</v>
       </c>
       <c r="K46" t="n">
-        <v>99.37418135760976</v>
+        <v>376.9079738537064</v>
       </c>
       <c r="L46" t="n">
-        <v>549.5989628126072</v>
+        <v>549.5989628126074</v>
       </c>
       <c r="M46" t="n">
-        <v>276.2620807186258</v>
+        <v>134.0773872573759</v>
       </c>
       <c r="N46" t="n">
-        <v>130.8893266660912</v>
+        <v>130.8893266660909</v>
       </c>
       <c r="O46" t="n">
-        <v>544.8058107788468</v>
+        <v>409.4567117440006</v>
       </c>
       <c r="P46" t="n">
         <v>454.4657429249294</v>
